--- a/Jogos_do_Dia/2024-03-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1105,10 +1105,10 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L2">
         <v>2.3</v>
@@ -1132,10 +1132,10 @@
         <v>2.84</v>
       </c>
       <c r="S2">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="T2">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U2">
         <v>1.83</v>
@@ -1236,13 +1236,13 @@
         <v>3.35</v>
       </c>
       <c r="J3">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="K3">
-        <v>3.24</v>
+        <v>3.13</v>
       </c>
       <c r="L3">
-        <v>2.7</v>
+        <v>2.81</v>
       </c>
       <c r="M3">
         <v>1.45</v>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="S3">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T3">
         <v>1.73</v>
@@ -1299,43 +1299,43 @@
         <v>2.47</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1367,13 +1367,13 @@
         <v>3.2</v>
       </c>
       <c r="J4">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="K4">
-        <v>3.22</v>
+        <v>3.1</v>
       </c>
       <c r="L4">
-        <v>2.51</v>
+        <v>2.57</v>
       </c>
       <c r="M4">
         <v>1.44</v>
@@ -1394,10 +1394,10 @@
         <v>3.25</v>
       </c>
       <c r="S4">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="T4">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="U4">
         <v>1.8</v>
@@ -1430,37 +1430,37 @@
         <v>2.92</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -1823,13 +1823,13 @@
         <v>3</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1838,22 +1838,22 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -2022,13 +2022,13 @@
         <v>7.6</v>
       </c>
       <c r="J9">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="K9">
-        <v>6.1</v>
+        <v>6.45</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>10.7</v>
       </c>
       <c r="M9">
         <v>1.22</v>
@@ -2153,13 +2153,13 @@
         <v>4.33</v>
       </c>
       <c r="J10">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K10">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M10">
         <v>1.31</v>
@@ -2180,7 +2180,7 @@
         <v>4.05</v>
       </c>
       <c r="S10">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T10">
         <v>2.15</v>
@@ -2231,28 +2231,28 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2284,13 +2284,13 @@
         <v>2.4</v>
       </c>
       <c r="J11">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L11">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="M11">
         <v>1.35</v>
@@ -2311,10 +2311,10 @@
         <v>3.56</v>
       </c>
       <c r="S11">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U11">
         <v>1.8</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2415,13 +2415,13 @@
         <v>2.63</v>
       </c>
       <c r="J12">
-        <v>2.78</v>
+        <v>3.4</v>
       </c>
       <c r="K12">
-        <v>3.52</v>
+        <v>3.5</v>
       </c>
       <c r="L12">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="M12">
         <v>1.34</v>
@@ -2442,10 +2442,10 @@
         <v>3.74</v>
       </c>
       <c r="S12">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U12">
         <v>1.67</v>
@@ -2493,28 +2493,28 @@
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2549,10 +2549,10 @@
         <v>1.45</v>
       </c>
       <c r="K13">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L13">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M13">
         <v>1.33</v>
@@ -2573,10 +2573,10 @@
         <v>3.74</v>
       </c>
       <c r="S13">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U13">
         <v>1.91</v>
@@ -2624,28 +2624,28 @@
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2668,7 +2668,7 @@
         <v>148</v>
       </c>
       <c r="G14">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H14">
         <v>2.3</v>
@@ -2677,13 +2677,13 @@
         <v>3.1</v>
       </c>
       <c r="J14">
-        <v>1.94</v>
+        <v>2.3</v>
       </c>
       <c r="K14">
-        <v>3.86</v>
+        <v>4</v>
       </c>
       <c r="L14">
-        <v>3.44</v>
+        <v>2.63</v>
       </c>
       <c r="M14">
         <v>1.28</v>
@@ -2704,7 +2704,7 @@
         <v>4.5</v>
       </c>
       <c r="S14">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="T14">
         <v>2.3</v>
@@ -2755,28 +2755,28 @@
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2880,10 +2880,10 @@
         <v>3.35</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="AJ15">
         <v>1.24</v>
@@ -3011,10 +3011,10 @@
         <v>2.1</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AJ16">
         <v>1.29</v>
@@ -3070,13 +3070,13 @@
         <v>5</v>
       </c>
       <c r="J17">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="K17">
-        <v>3.85</v>
+        <v>3.68</v>
       </c>
       <c r="L17">
-        <v>4.97</v>
+        <v>5.3</v>
       </c>
       <c r="M17">
         <v>1.36</v>
@@ -3097,10 +3097,10 @@
         <v>3.77</v>
       </c>
       <c r="S17">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="T17">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="U17">
         <v>1.8</v>
@@ -3133,43 +3133,43 @@
         <v>2.94</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.54</v>
+        <v>3.65</v>
       </c>
       <c r="K18">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L18">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -3228,10 +3228,10 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="T18">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>2.75</v>
       </c>
       <c r="J25">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L25">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="M25">
         <v>1.3</v>
@@ -4145,10 +4145,10 @@
         <v>4.2</v>
       </c>
       <c r="S25">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="U25">
         <v>1.57</v>
@@ -4249,13 +4249,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>7.5</v>
+        <v>9.9</v>
       </c>
       <c r="K26">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="L26">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T26">
         <v>2.25</v>
@@ -4443,43 +4443,43 @@
         <v>3.01</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -4705,13 +4705,13 @@
         <v>3.11</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AH29">
         <v>0</v>
@@ -4720,28 +4720,28 @@
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -4836,13 +4836,13 @@
         <v>3.34</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>14.75</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AH30">
         <v>0</v>
@@ -4851,28 +4851,28 @@
         <v>0</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AK30">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -4988,22 +4988,22 @@
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="32" spans="1:43">
@@ -5119,22 +5119,22 @@
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="33" spans="1:43">
@@ -5381,22 +5381,22 @@
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AM34">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AP34">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="35" spans="1:43">
@@ -5491,43 +5491,43 @@
         <v>2.47</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AJ35">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AK35">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AM35">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="36" spans="1:43">
@@ -5768,28 +5768,28 @@
         <v>0</v>
       </c>
       <c r="AJ37">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AK37">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AL37">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AM37">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AP37">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="38" spans="1:43">
@@ -5821,13 +5821,13 @@
         <v>2.38</v>
       </c>
       <c r="J38">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="K38">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L38">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="M38">
         <v>1.34</v>
@@ -5848,10 +5848,10 @@
         <v>3.74</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U38">
         <v>1.73</v>
@@ -6476,13 +6476,13 @@
         <v>2.75</v>
       </c>
       <c r="J43">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="K43">
-        <v>3.52</v>
+        <v>3.6</v>
       </c>
       <c r="L43">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="M43">
         <v>1.36</v>
@@ -6503,16 +6503,16 @@
         <v>3.5</v>
       </c>
       <c r="S43">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="T43">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V43">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W43">
         <v>1.58</v>
@@ -7849,31 +7849,31 @@
         <v>2.49</v>
       </c>
       <c r="AE53">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF53">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI53">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="AJ53">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AK53">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AL53">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AM53">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AN53">
         <v>1.95</v>
@@ -7882,10 +7882,10 @@
         <v>1.85</v>
       </c>
       <c r="AP53">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AQ53">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2024-03-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -190,12 +190,12 @@
     <t>Netherlands Eredivisie</t>
   </si>
   <si>
+    <t>Germany Bundesliga</t>
+  </si>
+  <si>
     <t>Spain Segunda División</t>
   </si>
   <si>
-    <t>Germany Bundesliga</t>
-  </si>
-  <si>
     <t>Italy Serie B</t>
   </si>
   <si>
@@ -292,21 +292,21 @@
     <t>Galatasaray</t>
   </si>
   <si>
+    <t>Lafnitz</t>
+  </si>
+  <si>
+    <t>Schwarz-Weiß Bregenz</t>
+  </si>
+  <si>
+    <t>St. Pölten</t>
+  </si>
+  <si>
+    <t>SV Stripfing Weiden</t>
+  </si>
+  <si>
     <t>First Vienna</t>
   </si>
   <si>
-    <t>Lafnitz</t>
-  </si>
-  <si>
-    <t>Schwarz-Weiß Bregenz</t>
-  </si>
-  <si>
-    <t>St. Pölten</t>
-  </si>
-  <si>
-    <t>SV Stripfing Weiden</t>
-  </si>
-  <si>
     <t>Eintracht Braunschweig</t>
   </si>
   <si>
@@ -343,66 +343,66 @@
     <t>Portimonense</t>
   </si>
   <si>
+    <t>AZ II</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>Dordrecht</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
+    <t>Utrecht II</t>
+  </si>
+  <si>
+    <t>VVV</t>
+  </si>
+  <si>
     <t>Ajax II</t>
   </si>
   <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>Dordrecht</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>VVV</t>
-  </si>
-  <si>
-    <t>Roda JC</t>
+    <t>Oss</t>
   </si>
   <si>
     <t>Willem II</t>
   </si>
   <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Utrecht II</t>
-  </si>
-  <si>
-    <t>Oss</t>
-  </si>
-  <si>
-    <t>AZ II</t>
-  </si>
-  <si>
     <t>Neuchâtel Xamax</t>
   </si>
   <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Leoben</t>
+  </si>
+  <si>
     <t>SD Huesca</t>
   </si>
   <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
     <t>Parma</t>
   </si>
   <si>
     <t>Jagiellonia Białystok</t>
   </si>
   <si>
-    <t>Leoben</t>
+    <t>Connah's Quay</t>
+  </si>
+  <si>
+    <t>Bala Town</t>
   </si>
   <si>
     <t>Haverfordwest County</t>
   </si>
   <si>
-    <t>Connah's Quay</t>
-  </si>
-  <si>
-    <t>Bala Town</t>
-  </si>
-  <si>
     <t>Napoli</t>
   </si>
   <si>
@@ -418,12 +418,12 @@
     <t>Nice</t>
   </si>
   <si>
+    <t>União de Leiria</t>
+  </si>
+  <si>
     <t>Estrela Amadora</t>
   </si>
   <si>
-    <t>União de Leiria</t>
-  </si>
-  <si>
     <t>El Gounah</t>
   </si>
   <si>
@@ -448,21 +448,21 @@
     <t>Rizespor</t>
   </si>
   <si>
+    <t>Floridsdorfer AC</t>
+  </si>
+  <si>
+    <t>Liefering</t>
+  </si>
+  <si>
+    <t>Kapfenberger SV</t>
+  </si>
+  <si>
+    <t>Amstetten</t>
+  </si>
+  <si>
     <t>Horn</t>
   </si>
   <si>
-    <t>Floridsdorfer AC</t>
-  </si>
-  <si>
-    <t>Liefering</t>
-  </si>
-  <si>
-    <t>Kapfenberger SV</t>
-  </si>
-  <si>
-    <t>Amstetten</t>
-  </si>
-  <si>
     <t>Hansa Rostock</t>
   </si>
   <si>
@@ -499,66 +499,66 @@
     <t>Porto</t>
   </si>
   <si>
+    <t>PSV II</t>
+  </si>
+  <si>
+    <t>PSV</t>
+  </si>
+  <si>
+    <t>Telstar</t>
+  </si>
+  <si>
+    <t>MVV</t>
+  </si>
+  <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
+    <t>ADO Den Haag</t>
+  </si>
+  <si>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
+    <t>Emmen</t>
+  </si>
+  <si>
     <t>NAC Breda</t>
   </si>
   <si>
-    <t>PSV</t>
-  </si>
-  <si>
-    <t>Telstar</t>
-  </si>
-  <si>
-    <t>MVV</t>
-  </si>
-  <si>
-    <t>Emmen</t>
-  </si>
-  <si>
-    <t>ADO Den Haag</t>
+    <t>Den Bosch</t>
   </si>
   <si>
     <t>Eindhoven</t>
   </si>
   <si>
-    <t>De Graafschap</t>
-  </si>
-  <si>
-    <t>Helmond Sport</t>
-  </si>
-  <si>
-    <t>Den Bosch</t>
-  </si>
-  <si>
-    <t>PSV II</t>
-  </si>
-  <si>
     <t>Sion</t>
   </si>
   <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Ried</t>
+  </si>
+  <si>
     <t>FC Andorra</t>
   </si>
   <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
     <t>Brescia</t>
   </si>
   <si>
     <t>Śląsk Wrocław</t>
   </si>
   <si>
-    <t>Ried</t>
+    <t>The New Saints</t>
+  </si>
+  <si>
+    <t>Caernarfon Town</t>
   </si>
   <si>
     <t>Penybont</t>
   </si>
   <si>
-    <t>The New Saints</t>
-  </si>
-  <si>
-    <t>Caernarfon Town</t>
-  </si>
-  <si>
     <t>Torino</t>
   </si>
   <si>
@@ -574,10 +574,10 @@
     <t>Montpellier</t>
   </si>
   <si>
+    <t>UD Oliveirense</t>
+  </si>
+  <si>
     <t>Casa Pia</t>
-  </si>
-  <si>
-    <t>UD Oliveirense</t>
   </si>
 </sst>
 </file>
@@ -1105,10 +1105,10 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K2">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>2.3</v>
@@ -1132,10 +1132,10 @@
         <v>2.84</v>
       </c>
       <c r="S2">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="T2">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U2">
         <v>1.83</v>
@@ -1236,13 +1236,13 @@
         <v>3.35</v>
       </c>
       <c r="J3">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="K3">
-        <v>3.13</v>
+        <v>2.96</v>
       </c>
       <c r="L3">
-        <v>2.81</v>
+        <v>2.83</v>
       </c>
       <c r="M3">
         <v>1.45</v>
@@ -1263,10 +1263,10 @@
         <v>3</v>
       </c>
       <c r="S3">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="T3">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U3">
         <v>1.73</v>
@@ -1463,10 +1463,10 @@
         <v>1.28</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1594,10 +1594,10 @@
         <v>1.36</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1629,13 +1629,13 @@
         <v>7</v>
       </c>
       <c r="J6">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="K6">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L6">
-        <v>6.75</v>
+        <v>7.15</v>
       </c>
       <c r="M6">
         <v>1.37</v>
@@ -1656,10 +1656,10 @@
         <v>3.42</v>
       </c>
       <c r="S6">
+        <v>1.78</v>
+      </c>
+      <c r="T6">
         <v>1.9</v>
-      </c>
-      <c r="T6">
-        <v>1.79</v>
       </c>
       <c r="U6">
         <v>2.11</v>
@@ -1760,10 +1760,10 @@
         <v>2.05</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>5.35</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>3.88</v>
       </c>
       <c r="L7">
         <v>1.5</v>
@@ -1787,10 +1787,10 @@
         <v>3.42</v>
       </c>
       <c r="S7">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="T7">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="U7">
         <v>1.93</v>
@@ -1832,10 +1832,10 @@
         <v>1.4</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ7">
         <v>1.6</v>
@@ -1856,10 +1856,10 @@
         <v>1.51</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1891,13 +1891,13 @@
         <v>4.01</v>
       </c>
       <c r="J8">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="K8">
         <v>3.35</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>4.18</v>
       </c>
       <c r="M8">
         <v>1.5</v>
@@ -1918,10 +1918,10 @@
         <v>2.7</v>
       </c>
       <c r="S8">
-        <v>2.28</v>
+        <v>2.13</v>
       </c>
       <c r="T8">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="U8">
         <v>2.05</v>
@@ -2022,13 +2022,13 @@
         <v>7.6</v>
       </c>
       <c r="J9">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="K9">
-        <v>6.45</v>
+        <v>5.55</v>
       </c>
       <c r="L9">
-        <v>10.7</v>
+        <v>7.3</v>
       </c>
       <c r="M9">
         <v>1.22</v>
@@ -2049,10 +2049,10 @@
         <v>6.6</v>
       </c>
       <c r="S9">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T9">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="U9">
         <v>1.78</v>
@@ -2144,115 +2144,115 @@
         <v>144</v>
       </c>
       <c r="G10">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="H10">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I10">
-        <v>4.33</v>
+        <v>2.4</v>
       </c>
       <c r="J10">
+        <v>3.48</v>
+      </c>
+      <c r="K10">
+        <v>3.5</v>
+      </c>
+      <c r="L10">
+        <v>1.86</v>
+      </c>
+      <c r="M10">
+        <v>1.35</v>
+      </c>
+      <c r="N10">
+        <v>3.04</v>
+      </c>
+      <c r="O10">
+        <v>1.01</v>
+      </c>
+      <c r="P10">
+        <v>9.9</v>
+      </c>
+      <c r="Q10">
+        <v>1.23</v>
+      </c>
+      <c r="R10">
+        <v>3.56</v>
+      </c>
+      <c r="S10">
         <v>1.8</v>
       </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10">
-        <v>4</v>
-      </c>
-      <c r="M10">
-        <v>1.31</v>
-      </c>
-      <c r="N10">
-        <v>3.28</v>
-      </c>
-      <c r="O10">
-        <v>1.04</v>
-      </c>
-      <c r="P10">
-        <v>10</v>
-      </c>
-      <c r="Q10">
-        <v>1.18</v>
-      </c>
-      <c r="R10">
-        <v>4.05</v>
-      </c>
-      <c r="S10">
+      <c r="T10">
+        <v>1.94</v>
+      </c>
+      <c r="U10">
+        <v>1.8</v>
+      </c>
+      <c r="V10">
+        <v>1.91</v>
+      </c>
+      <c r="W10">
+        <v>1.92</v>
+      </c>
+      <c r="X10">
+        <v>1.26</v>
+      </c>
+      <c r="Y10">
+        <v>1.23</v>
+      </c>
+      <c r="Z10">
         <v>1.67</v>
       </c>
-      <c r="T10">
-        <v>2.15</v>
-      </c>
-      <c r="U10">
-        <v>1.67</v>
-      </c>
-      <c r="V10">
-        <v>2.1</v>
-      </c>
-      <c r="W10">
-        <v>1.22</v>
-      </c>
-      <c r="X10">
-        <v>1.24</v>
-      </c>
-      <c r="Y10">
-        <v>2</v>
-      </c>
-      <c r="Z10">
+      <c r="AA10">
+        <v>1.88</v>
+      </c>
+      <c r="AB10">
+        <v>1.51</v>
+      </c>
+      <c r="AC10">
+        <v>1.49</v>
+      </c>
+      <c r="AD10">
+        <v>3</v>
+      </c>
+      <c r="AE10">
+        <v>2.62</v>
+      </c>
+      <c r="AF10">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AG10">
+        <v>1.61</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
         <v>1.5</v>
       </c>
-      <c r="AA10">
-        <v>0.67</v>
-      </c>
-      <c r="AB10">
-        <v>1.3</v>
-      </c>
-      <c r="AC10">
-        <v>1.25</v>
-      </c>
-      <c r="AD10">
-        <v>2.55</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>1.33</v>
-      </c>
-      <c r="AK10">
-        <v>3.05</v>
-      </c>
-      <c r="AL10">
-        <v>1.64</v>
-      </c>
       <c r="AM10">
-        <v>2.21</v>
+        <v>2.47</v>
       </c>
       <c r="AN10">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="AO10">
-        <v>1.76</v>
+        <v>1.96</v>
       </c>
       <c r="AP10">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="AQ10">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2275,76 +2275,76 @@
         <v>145</v>
       </c>
       <c r="G11">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="H11">
         <v>2.2</v>
       </c>
       <c r="I11">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>2.62</v>
       </c>
       <c r="K11">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L11">
-        <v>1.83</v>
+        <v>2.35</v>
       </c>
       <c r="M11">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="N11">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="O11">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P11">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="Q11">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="R11">
-        <v>3.56</v>
+        <v>3.74</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T11">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V11">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W11">
-        <v>1.92</v>
+        <v>1.68</v>
       </c>
       <c r="X11">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Y11">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="Z11">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AA11">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AB11">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="AC11">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="AD11">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -2362,28 +2362,28 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AL11">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="AM11">
-        <v>2.47</v>
+        <v>2.04</v>
       </c>
       <c r="AN11">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="AO11">
-        <v>1.96</v>
+        <v>1.65</v>
       </c>
       <c r="AP11">
-        <v>2.25</v>
+        <v>2.85</v>
       </c>
       <c r="AQ11">
-        <v>1.61</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2406,31 +2406,31 @@
         <v>146</v>
       </c>
       <c r="G12">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="H12">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I12">
-        <v>2.63</v>
+        <v>6</v>
       </c>
       <c r="J12">
-        <v>3.4</v>
+        <v>1.43</v>
       </c>
       <c r="K12">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="L12">
-        <v>2.05</v>
+        <v>5.55</v>
       </c>
       <c r="M12">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="N12">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="O12">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P12">
         <v>10.5</v>
@@ -2442,49 +2442,49 @@
         <v>3.74</v>
       </c>
       <c r="S12">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="T12">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="U12">
+        <v>1.91</v>
+      </c>
+      <c r="V12">
+        <v>1.8</v>
+      </c>
+      <c r="W12">
+        <v>1.09</v>
+      </c>
+      <c r="X12">
+        <v>1.18</v>
+      </c>
+      <c r="Y12">
+        <v>2.68</v>
+      </c>
+      <c r="Z12">
+        <v>1.33</v>
+      </c>
+      <c r="AA12">
         <v>1.67</v>
       </c>
-      <c r="V12">
-        <v>2.1</v>
-      </c>
-      <c r="W12">
-        <v>1.68</v>
-      </c>
-      <c r="X12">
+      <c r="AB12">
+        <v>1.54</v>
+      </c>
+      <c r="AC12">
         <v>1.28</v>
       </c>
-      <c r="Y12">
-        <v>1.33</v>
-      </c>
-      <c r="Z12">
-        <v>1.38</v>
-      </c>
-      <c r="AA12">
-        <v>1.25</v>
-      </c>
-      <c r="AB12">
-        <v>1.3</v>
-      </c>
-      <c r="AC12">
-        <v>1.59</v>
-      </c>
       <c r="AD12">
-        <v>2.89</v>
+        <v>2.82</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -2493,28 +2493,28 @@
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="AK12">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="AL12">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="AM12">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="AN12">
-        <v>2.17</v>
+        <v>1.98</v>
       </c>
       <c r="AO12">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="AP12">
-        <v>2.85</v>
+        <v>2.52</v>
       </c>
       <c r="AQ12">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2537,115 +2537,115 @@
         <v>147</v>
       </c>
       <c r="G13">
-        <v>1.95</v>
+        <v>2.88</v>
       </c>
       <c r="H13">
         <v>2.3</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="J13">
-        <v>1.45</v>
+        <v>1.87</v>
       </c>
       <c r="K13">
+        <v>3.7</v>
+      </c>
+      <c r="L13">
+        <v>3.3</v>
+      </c>
+      <c r="M13">
+        <v>1.28</v>
+      </c>
+      <c r="N13">
+        <v>3.4</v>
+      </c>
+      <c r="O13">
+        <v>1.02</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <v>1.18</v>
+      </c>
+      <c r="R13">
         <v>4.5</v>
       </c>
-      <c r="L13">
-        <v>6.5</v>
-      </c>
-      <c r="M13">
-        <v>1.33</v>
-      </c>
-      <c r="N13">
-        <v>3.14</v>
-      </c>
-      <c r="O13">
-        <v>1.03</v>
-      </c>
-      <c r="P13">
-        <v>10.5</v>
-      </c>
-      <c r="Q13">
-        <v>1.21</v>
-      </c>
-      <c r="R13">
-        <v>3.74</v>
-      </c>
       <c r="S13">
+        <v>1.59</v>
+      </c>
+      <c r="T13">
+        <v>2.27</v>
+      </c>
+      <c r="U13">
+        <v>1.53</v>
+      </c>
+      <c r="V13">
+        <v>2.38</v>
+      </c>
+      <c r="W13">
+        <v>1.36</v>
+      </c>
+      <c r="X13">
+        <v>1.2</v>
+      </c>
+      <c r="Y13">
+        <v>1.72</v>
+      </c>
+      <c r="Z13">
+        <v>1.63</v>
+      </c>
+      <c r="AA13">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AB13">
+        <v>1.19</v>
+      </c>
+      <c r="AC13">
+        <v>1.06</v>
+      </c>
+      <c r="AD13">
+        <v>2.25</v>
+      </c>
+      <c r="AE13">
+        <v>2.2</v>
+      </c>
+      <c r="AF13">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG13">
+        <v>1.86</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>1.37</v>
+      </c>
+      <c r="AK13">
+        <v>2.85</v>
+      </c>
+      <c r="AL13">
         <v>1.75</v>
       </c>
-      <c r="T13">
-        <v>2.05</v>
-      </c>
-      <c r="U13">
-        <v>1.91</v>
-      </c>
-      <c r="V13">
-        <v>1.8</v>
-      </c>
-      <c r="W13">
-        <v>1.09</v>
-      </c>
-      <c r="X13">
-        <v>1.18</v>
-      </c>
-      <c r="Y13">
-        <v>2.68</v>
-      </c>
-      <c r="Z13">
-        <v>1.33</v>
-      </c>
-      <c r="AA13">
-        <v>1.67</v>
-      </c>
-      <c r="AB13">
-        <v>1.54</v>
-      </c>
-      <c r="AC13">
-        <v>1.28</v>
-      </c>
-      <c r="AD13">
-        <v>2.82</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>1.29</v>
-      </c>
-      <c r="AK13">
-        <v>3.3</v>
-      </c>
-      <c r="AL13">
-        <v>1.6</v>
-      </c>
       <c r="AM13">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="AN13">
-        <v>1.98</v>
+        <v>2.17</v>
       </c>
       <c r="AO13">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="AP13">
-        <v>2.52</v>
+        <v>2.85</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2668,76 +2668,76 @@
         <v>148</v>
       </c>
       <c r="G14">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="H14">
         <v>2.3</v>
       </c>
       <c r="I14">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="J14">
-        <v>2.3</v>
+        <v>1.79</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>3.63</v>
       </c>
       <c r="L14">
-        <v>2.63</v>
+        <v>3.63</v>
       </c>
       <c r="M14">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="N14">
-        <v>3.4</v>
+        <v>3.28</v>
       </c>
       <c r="O14">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q14">
         <v>1.18</v>
       </c>
       <c r="R14">
-        <v>4.5</v>
+        <v>4.05</v>
       </c>
       <c r="S14">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="T14">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="U14">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="V14">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="W14">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="X14">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="Y14">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="Z14">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AA14">
-        <v>0.5600000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AB14">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AC14">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AD14">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -2755,28 +2755,28 @@
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AK14">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="AL14">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="AM14">
+        <v>2.21</v>
+      </c>
+      <c r="AN14">
         <v>2.04</v>
       </c>
-      <c r="AN14">
-        <v>2.17</v>
-      </c>
       <c r="AO14">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="AP14">
-        <v>2.85</v>
+        <v>2.62</v>
       </c>
       <c r="AQ14">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2808,13 +2808,13 @@
         <v>4.97</v>
       </c>
       <c r="J15">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="K15">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L15">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="M15">
         <v>1.39</v>
@@ -2835,10 +2835,10 @@
         <v>3.65</v>
       </c>
       <c r="S15">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="U15">
         <v>1.73</v>
@@ -2939,10 +2939,10 @@
         <v>3</v>
       </c>
       <c r="J16">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K16">
-        <v>3.5</v>
+        <v>3.82</v>
       </c>
       <c r="L16">
         <v>2.63</v>
@@ -2966,10 +2966,10 @@
         <v>5</v>
       </c>
       <c r="S16">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="T16">
-        <v>2.71</v>
+        <v>2.4</v>
       </c>
       <c r="U16">
         <v>1.42</v>
@@ -3332,13 +3332,13 @@
         <v>1.83</v>
       </c>
       <c r="J19">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="L19">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M19">
         <v>1.29</v>
@@ -3359,10 +3359,10 @@
         <v>4.83</v>
       </c>
       <c r="S19">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="T19">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
         <v>1.8</v>
@@ -3463,13 +3463,13 @@
         <v>5.2</v>
       </c>
       <c r="J20">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="K20">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L20">
-        <v>4.7</v>
+        <v>4.57</v>
       </c>
       <c r="M20">
         <v>1.45</v>
@@ -3490,10 +3490,10 @@
         <v>2.84</v>
       </c>
       <c r="S20">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T20">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U20">
         <v>1.99</v>
@@ -3559,10 +3559,10 @@
         <v>1.32</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -3690,10 +3690,10 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -3725,13 +3725,13 @@
         <v>3.55</v>
       </c>
       <c r="J22">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="L22">
-        <v>2.75</v>
+        <v>2.69</v>
       </c>
       <c r="M22">
         <v>1.5</v>
@@ -3746,16 +3746,16 @@
         <v>6.75</v>
       </c>
       <c r="Q22">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R22">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="S22">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="T22">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U22">
         <v>2.1</v>
@@ -3821,10 +3821,10 @@
         <v>1.35</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -3856,13 +3856,13 @@
         <v>2.89</v>
       </c>
       <c r="J23">
-        <v>2.75</v>
+        <v>2.68</v>
       </c>
       <c r="K23">
         <v>3.05</v>
       </c>
       <c r="L23">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="M23">
         <v>1.44</v>
@@ -3883,10 +3883,10 @@
         <v>2.93</v>
       </c>
       <c r="S23">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="T23">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U23">
         <v>1.83</v>
@@ -3952,10 +3952,10 @@
         <v>1.3</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -3987,13 +3987,13 @@
         <v>2.57</v>
       </c>
       <c r="J24">
-        <v>3.75</v>
+        <v>3.62</v>
       </c>
       <c r="K24">
-        <v>3.15</v>
+        <v>3.22</v>
       </c>
       <c r="L24">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="M24">
         <v>1.43</v>
@@ -4014,10 +4014,10 @@
         <v>3.04</v>
       </c>
       <c r="S24">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U24">
         <v>1.84</v>
@@ -4109,22 +4109,22 @@
         <v>159</v>
       </c>
       <c r="G25">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H25">
         <v>2.25</v>
       </c>
       <c r="I25">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="K25">
-        <v>3.4</v>
+        <v>3.53</v>
       </c>
       <c r="L25">
-        <v>2.3</v>
+        <v>1.96</v>
       </c>
       <c r="M25">
         <v>1.3</v>
@@ -4145,10 +4145,10 @@
         <v>4.2</v>
       </c>
       <c r="S25">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="T25">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="U25">
         <v>1.57</v>
@@ -4181,13 +4181,13 @@
         <v>2.83</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -4196,28 +4196,28 @@
         <v>0</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -4249,13 +4249,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>9.9</v>
+        <v>7.2</v>
       </c>
       <c r="K26">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="L26">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -4276,10 +4276,10 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -4371,22 +4371,22 @@
         <v>161</v>
       </c>
       <c r="G27">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="H27">
         <v>2.5</v>
       </c>
       <c r="I27">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="J27">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
         <v>1.22</v>
@@ -4395,10 +4395,10 @@
         <v>3.9</v>
       </c>
       <c r="O27">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P27">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Q27">
         <v>1.14</v>
@@ -4407,79 +4407,79 @@
         <v>5.5</v>
       </c>
       <c r="S27">
+        <v>1.5</v>
+      </c>
+      <c r="T27">
+        <v>2.65</v>
+      </c>
+      <c r="U27">
         <v>1.45</v>
       </c>
-      <c r="T27">
-        <v>2.75</v>
-      </c>
-      <c r="U27">
-        <v>1.42</v>
-      </c>
       <c r="V27">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="W27">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="X27">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="Y27">
-        <v>1.35</v>
+        <v>1.87</v>
       </c>
       <c r="Z27">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="AA27">
+        <v>0.92</v>
+      </c>
+      <c r="AB27">
+        <v>1.52</v>
+      </c>
+      <c r="AC27">
         <v>1.5</v>
       </c>
-      <c r="AB27">
-        <v>1.56</v>
-      </c>
-      <c r="AC27">
-        <v>1.45</v>
-      </c>
       <c r="AD27">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="AE27">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="AF27">
-        <v>9.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AG27">
-        <v>1.68</v>
+        <v>2.91</v>
       </c>
       <c r="AH27">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AI27">
         <v>3.9</v>
       </c>
       <c r="AJ27">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AK27">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AL27">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AM27">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="AN27">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AO27">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AP27">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AQ27">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -4511,13 +4511,13 @@
         <v>1.75</v>
       </c>
       <c r="J28">
-        <v>7.5</v>
+        <v>4.9</v>
       </c>
       <c r="K28">
-        <v>5.4</v>
+        <v>5.15</v>
       </c>
       <c r="L28">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="M28">
         <v>1.24</v>
@@ -4538,10 +4538,10 @@
         <v>6.28</v>
       </c>
       <c r="S28">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T28">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
         <v>1.66</v>
@@ -4714,10 +4714,10 @@
         <v>2.48</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AJ29">
         <v>1.33</v>
@@ -4845,10 +4845,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ30">
         <v>1.3</v>
@@ -4895,85 +4895,85 @@
         <v>165</v>
       </c>
       <c r="G31">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H31">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="I31">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J31">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="K31">
+        <v>3.8</v>
+      </c>
+      <c r="L31">
+        <v>2.7</v>
+      </c>
+      <c r="M31">
+        <v>1.25</v>
+      </c>
+      <c r="N31">
         <v>3.6</v>
       </c>
-      <c r="L31">
-        <v>2.5</v>
-      </c>
-      <c r="M31">
-        <v>1.3</v>
-      </c>
-      <c r="N31">
-        <v>3.2</v>
-      </c>
       <c r="O31">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="P31">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Q31">
-        <v>1.22</v>
+        <v>1.09</v>
       </c>
       <c r="R31">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="S31">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="T31">
-        <v>2.15</v>
+        <v>2.65</v>
       </c>
       <c r="U31">
+        <v>1.35</v>
+      </c>
+      <c r="V31">
+        <v>2.9</v>
+      </c>
+      <c r="W31">
+        <v>1.4</v>
+      </c>
+      <c r="X31">
+        <v>1.17</v>
+      </c>
+      <c r="Y31">
+        <v>1.67</v>
+      </c>
+      <c r="Z31">
+        <v>1.36</v>
+      </c>
+      <c r="AA31">
         <v>1.57</v>
       </c>
-      <c r="V31">
-        <v>2.35</v>
-      </c>
-      <c r="W31">
-        <v>1.53</v>
-      </c>
-      <c r="X31">
-        <v>1.25</v>
-      </c>
-      <c r="Y31">
-        <v>1.5</v>
-      </c>
-      <c r="Z31">
-        <v>1.71</v>
-      </c>
-      <c r="AA31">
-        <v>1.14</v>
-      </c>
       <c r="AB31">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="AC31">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AD31">
-        <v>3.08</v>
+        <v>3.52</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AH31">
         <v>0</v>
@@ -4982,28 +4982,28 @@
         <v>0</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AL31">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AM31">
-        <v>2.45</v>
+        <v>2.54</v>
       </c>
       <c r="AN31">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="AO31">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="AP31">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="AQ31">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="32" spans="1:43">
@@ -5098,13 +5098,13 @@
         <v>3.63</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH32">
         <v>0</v>
@@ -5113,10 +5113,10 @@
         <v>0</v>
       </c>
       <c r="AJ32">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AK32">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AL32">
         <v>1.6</v>
@@ -5157,115 +5157,115 @@
         <v>167</v>
       </c>
       <c r="G33">
-        <v>1.87</v>
+        <v>3.42</v>
       </c>
       <c r="H33">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="I33">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="J33">
-        <v>1.38</v>
+        <v>2.9</v>
       </c>
       <c r="K33">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L33">
-        <v>7.5</v>
+        <v>2.35</v>
       </c>
       <c r="M33">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="N33">
-        <v>3.4</v>
+        <v>3.29</v>
       </c>
       <c r="O33">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P33">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q33">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="R33">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="S33">
+        <v>1.8</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
         <v>1.63</v>
       </c>
-      <c r="T33">
-        <v>2.25</v>
-      </c>
-      <c r="U33">
-        <v>1.87</v>
-      </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="W33">
-        <v>1.07</v>
+        <v>1.6</v>
       </c>
       <c r="X33">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="Y33">
-        <v>3</v>
+        <v>1.42</v>
       </c>
       <c r="Z33">
-        <v>2.29</v>
+        <v>1.31</v>
       </c>
       <c r="AA33">
-        <v>1.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB33">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="AC33">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AD33">
-        <v>3.09</v>
+        <v>2.47</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AJ33">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AK33">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AL33">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AP33">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="34" spans="1:43">
@@ -5288,115 +5288,115 @@
         <v>168</v>
       </c>
       <c r="G34">
+        <v>3.2</v>
+      </c>
+      <c r="H34">
+        <v>2.25</v>
+      </c>
+      <c r="I34">
+        <v>3.1</v>
+      </c>
+      <c r="J34">
         <v>2.6</v>
       </c>
-      <c r="H34">
+      <c r="K34">
+        <v>3.6</v>
+      </c>
+      <c r="L34">
+        <v>2.5</v>
+      </c>
+      <c r="M34">
+        <v>1.3</v>
+      </c>
+      <c r="N34">
+        <v>3.2</v>
+      </c>
+      <c r="O34">
+        <v>1.03</v>
+      </c>
+      <c r="P34">
+        <v>15</v>
+      </c>
+      <c r="Q34">
+        <v>1.22</v>
+      </c>
+      <c r="R34">
+        <v>4.2</v>
+      </c>
+      <c r="S34">
+        <v>1.7</v>
+      </c>
+      <c r="T34">
+        <v>2.15</v>
+      </c>
+      <c r="U34">
+        <v>1.57</v>
+      </c>
+      <c r="V34">
+        <v>2.35</v>
+      </c>
+      <c r="W34">
+        <v>1.53</v>
+      </c>
+      <c r="X34">
+        <v>1.25</v>
+      </c>
+      <c r="Y34">
+        <v>1.5</v>
+      </c>
+      <c r="Z34">
+        <v>1.71</v>
+      </c>
+      <c r="AA34">
+        <v>1.14</v>
+      </c>
+      <c r="AB34">
+        <v>1.64</v>
+      </c>
+      <c r="AC34">
+        <v>1.44</v>
+      </c>
+      <c r="AD34">
+        <v>3.08</v>
+      </c>
+      <c r="AE34">
+        <v>2.13</v>
+      </c>
+      <c r="AF34">
+        <v>7.7</v>
+      </c>
+      <c r="AG34">
+        <v>2</v>
+      </c>
+      <c r="AH34">
+        <v>1.15</v>
+      </c>
+      <c r="AI34">
+        <v>4.8</v>
+      </c>
+      <c r="AJ34">
+        <v>1.29</v>
+      </c>
+      <c r="AK34">
+        <v>3.2</v>
+      </c>
+      <c r="AL34">
+        <v>1.52</v>
+      </c>
+      <c r="AM34">
         <v>2.45</v>
       </c>
-      <c r="I34">
-        <v>2.9</v>
-      </c>
-      <c r="J34">
-        <v>2.2</v>
-      </c>
-      <c r="K34">
-        <v>3.8</v>
-      </c>
-      <c r="L34">
-        <v>2.7</v>
-      </c>
-      <c r="M34">
-        <v>1.25</v>
-      </c>
-      <c r="N34">
-        <v>3.6</v>
-      </c>
-      <c r="O34">
-        <v>1.01</v>
-      </c>
-      <c r="P34">
-        <v>24</v>
-      </c>
-      <c r="Q34">
-        <v>1.09</v>
-      </c>
-      <c r="R34">
-        <v>5.8</v>
-      </c>
-      <c r="S34">
-        <v>1.42</v>
-      </c>
-      <c r="T34">
-        <v>2.65</v>
-      </c>
-      <c r="U34">
-        <v>1.35</v>
-      </c>
-      <c r="V34">
-        <v>2.9</v>
-      </c>
-      <c r="W34">
-        <v>1.4</v>
-      </c>
-      <c r="X34">
-        <v>1.17</v>
-      </c>
-      <c r="Y34">
-        <v>1.67</v>
-      </c>
-      <c r="Z34">
-        <v>1.36</v>
-      </c>
-      <c r="AA34">
-        <v>1.57</v>
-      </c>
-      <c r="AB34">
-        <v>1.95</v>
-      </c>
-      <c r="AC34">
-        <v>1.57</v>
-      </c>
-      <c r="AD34">
-        <v>3.52</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AK34">
-        <v>0</v>
-      </c>
-      <c r="AL34">
-        <v>1.49</v>
-      </c>
-      <c r="AM34">
-        <v>2.54</v>
-      </c>
       <c r="AN34">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="AO34">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="AP34">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="AQ34">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="35" spans="1:43">
@@ -5419,115 +5419,115 @@
         <v>169</v>
       </c>
       <c r="G35">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
       <c r="H35">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="J35">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="K35">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L35">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="N35">
-        <v>3.29</v>
+        <v>3.9</v>
       </c>
       <c r="O35">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P35">
         <v>13</v>
       </c>
       <c r="Q35">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="R35">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="S35">
+        <v>1.45</v>
+      </c>
+      <c r="T35">
+        <v>2.75</v>
+      </c>
+      <c r="U35">
+        <v>1.42</v>
+      </c>
+      <c r="V35">
+        <v>2.8</v>
+      </c>
+      <c r="W35">
         <v>1.8</v>
       </c>
-      <c r="T35">
-        <v>2</v>
-      </c>
-      <c r="U35">
-        <v>1.63</v>
-      </c>
-      <c r="V35">
-        <v>2.2</v>
-      </c>
-      <c r="W35">
-        <v>1.6</v>
-      </c>
       <c r="X35">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Y35">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="Z35">
-        <v>1.31</v>
+        <v>1.69</v>
       </c>
       <c r="AA35">
-        <v>0.6899999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="AB35">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="AC35">
-        <v>1.17</v>
+        <v>1.45</v>
       </c>
       <c r="AD35">
-        <v>2.47</v>
+        <v>3.01</v>
       </c>
       <c r="AE35">
-        <v>2.09</v>
+        <v>2.5</v>
       </c>
       <c r="AF35">
-        <v>8.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AG35">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AH35">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AI35">
-        <v>3.42</v>
+        <v>3.9</v>
       </c>
       <c r="AJ35">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AK35">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="AL35">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AM35">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="AN35">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="AO35">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="AP35">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="AQ35">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="36" spans="1:43">
@@ -5622,43 +5622,43 @@
         <v>2.26</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AG36">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AI36">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ36">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AK36">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AL36">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AM36">
         <v>0</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AO36">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AP36">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="37" spans="1:43">
@@ -5681,91 +5681,91 @@
         <v>171</v>
       </c>
       <c r="G37">
-        <v>2.45</v>
+        <v>1.87</v>
       </c>
       <c r="H37">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="I37">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="J37">
-        <v>1.95</v>
+        <v>1.38</v>
       </c>
       <c r="K37">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="L37">
+        <v>7.5</v>
+      </c>
+      <c r="M37">
+        <v>1.28</v>
+      </c>
+      <c r="N37">
         <v>3.4</v>
       </c>
-      <c r="M37">
+      <c r="O37">
+        <v>1.02</v>
+      </c>
+      <c r="P37">
+        <v>17</v>
+      </c>
+      <c r="Q37">
+        <v>1.2</v>
+      </c>
+      <c r="R37">
+        <v>4.5</v>
+      </c>
+      <c r="S37">
+        <v>1.63</v>
+      </c>
+      <c r="T37">
+        <v>2.25</v>
+      </c>
+      <c r="U37">
+        <v>1.87</v>
+      </c>
+      <c r="V37">
+        <v>1.9</v>
+      </c>
+      <c r="W37">
+        <v>1.07</v>
+      </c>
+      <c r="X37">
+        <v>1.14</v>
+      </c>
+      <c r="Y37">
+        <v>3</v>
+      </c>
+      <c r="Z37">
+        <v>2.29</v>
+      </c>
+      <c r="AA37">
+        <v>1.5</v>
+      </c>
+      <c r="AB37">
+        <v>1.67</v>
+      </c>
+      <c r="AC37">
+        <v>1.42</v>
+      </c>
+      <c r="AD37">
+        <v>3.09</v>
+      </c>
+      <c r="AE37">
+        <v>1.29</v>
+      </c>
+      <c r="AF37">
+        <v>12</v>
+      </c>
+      <c r="AG37">
+        <v>4.34</v>
+      </c>
+      <c r="AH37">
         <v>1.22</v>
       </c>
-      <c r="N37">
+      <c r="AI37">
         <v>3.9</v>
-      </c>
-      <c r="O37">
-        <v>1.01</v>
-      </c>
-      <c r="P37">
-        <v>22</v>
-      </c>
-      <c r="Q37">
-        <v>1.14</v>
-      </c>
-      <c r="R37">
-        <v>5.5</v>
-      </c>
-      <c r="S37">
-        <v>1.5</v>
-      </c>
-      <c r="T37">
-        <v>2.65</v>
-      </c>
-      <c r="U37">
-        <v>1.45</v>
-      </c>
-      <c r="V37">
-        <v>2.65</v>
-      </c>
-      <c r="W37">
-        <v>1.33</v>
-      </c>
-      <c r="X37">
-        <v>1.17</v>
-      </c>
-      <c r="Y37">
-        <v>1.87</v>
-      </c>
-      <c r="Z37">
-        <v>1.86</v>
-      </c>
-      <c r="AA37">
-        <v>0.92</v>
-      </c>
-      <c r="AB37">
-        <v>1.52</v>
-      </c>
-      <c r="AC37">
-        <v>1.5</v>
-      </c>
-      <c r="AD37">
-        <v>3.02</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
-      <c r="AI37">
-        <v>0</v>
       </c>
       <c r="AJ37">
         <v>1.41</v>
@@ -5774,22 +5774,22 @@
         <v>2.7</v>
       </c>
       <c r="AL37">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AM37">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="AN37">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AO37">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="AP37">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="AQ37">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="38" spans="1:43">
@@ -5818,16 +5818,16 @@
         <v>2.25</v>
       </c>
       <c r="I38">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J38">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="K38">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L38">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="M38">
         <v>1.34</v>
@@ -5848,10 +5848,10 @@
         <v>3.74</v>
       </c>
       <c r="S38">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="T38">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="U38">
         <v>1.73</v>
@@ -5884,13 +5884,13 @@
         <v>3.19</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH38">
         <v>0</v>
@@ -5905,16 +5905,16 @@
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AM38">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AP38">
         <v>0</v>
@@ -5934,7 +5934,7 @@
         <v>80</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E39" t="s">
         <v>121</v>
@@ -5943,120 +5943,120 @@
         <v>173</v>
       </c>
       <c r="G39">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="H39">
+        <v>2.38</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <v>1.6</v>
+      </c>
+      <c r="K39">
+        <v>4.2</v>
+      </c>
+      <c r="L39">
+        <v>4.6</v>
+      </c>
+      <c r="M39">
+        <v>1.33</v>
+      </c>
+      <c r="N39">
+        <v>3.25</v>
+      </c>
+      <c r="O39">
+        <v>1.06</v>
+      </c>
+      <c r="P39">
+        <v>14.5</v>
+      </c>
+      <c r="Q39">
+        <v>1.22</v>
+      </c>
+      <c r="R39">
+        <v>4</v>
+      </c>
+      <c r="S39">
+        <v>1.63</v>
+      </c>
+      <c r="T39">
+        <v>2.14</v>
+      </c>
+      <c r="U39">
+        <v>1.95</v>
+      </c>
+      <c r="V39">
+        <v>1.8</v>
+      </c>
+      <c r="W39">
+        <v>1.08</v>
+      </c>
+      <c r="X39">
+        <v>1.18</v>
+      </c>
+      <c r="Y39">
+        <v>2.49</v>
+      </c>
+      <c r="Z39">
+        <v>2.42</v>
+      </c>
+      <c r="AA39">
+        <v>0.67</v>
+      </c>
+      <c r="AB39">
+        <v>1.97</v>
+      </c>
+      <c r="AC39">
+        <v>1.18</v>
+      </c>
+      <c r="AD39">
+        <v>3.15</v>
+      </c>
+      <c r="AE39">
+        <v>1.36</v>
+      </c>
+      <c r="AF39">
+        <v>9</v>
+      </c>
+      <c r="AG39">
+        <v>4</v>
+      </c>
+      <c r="AH39">
+        <v>1.29</v>
+      </c>
+      <c r="AI39">
+        <v>3</v>
+      </c>
+      <c r="AJ39">
+        <v>1.54</v>
+      </c>
+      <c r="AK39">
+        <v>2.25</v>
+      </c>
+      <c r="AL39">
+        <v>1.91</v>
+      </c>
+      <c r="AM39">
         <v>1.78</v>
       </c>
-      <c r="I39">
-        <v>4.2</v>
-      </c>
-      <c r="J39">
-        <v>2.32</v>
-      </c>
-      <c r="K39">
-        <v>2.8</v>
-      </c>
-      <c r="L39">
-        <v>3.35</v>
-      </c>
-      <c r="M39">
-        <v>1.68</v>
-      </c>
-      <c r="N39">
-        <v>2.08</v>
-      </c>
-      <c r="O39">
-        <v>1.14</v>
-      </c>
-      <c r="P39">
-        <v>5.5</v>
-      </c>
-      <c r="Q39">
-        <v>1.64</v>
-      </c>
-      <c r="R39">
-        <v>2.12</v>
-      </c>
-      <c r="S39">
-        <v>2.58</v>
-      </c>
-      <c r="T39">
-        <v>1.4</v>
-      </c>
-      <c r="U39">
+      <c r="AN39">
         <v>2.4</v>
       </c>
-      <c r="V39">
-        <v>1.53</v>
-      </c>
-      <c r="W39">
-        <v>1.3</v>
-      </c>
-      <c r="X39">
-        <v>1.35</v>
-      </c>
-      <c r="Y39">
-        <v>1.57</v>
-      </c>
-      <c r="Z39">
-        <v>1</v>
-      </c>
-      <c r="AA39">
-        <v>0.5</v>
-      </c>
-      <c r="AB39">
-        <v>1.28</v>
-      </c>
-      <c r="AC39">
-        <v>1.35</v>
-      </c>
-      <c r="AD39">
-        <v>2.63</v>
-      </c>
-      <c r="AE39">
-        <v>2</v>
-      </c>
-      <c r="AF39">
-        <v>8.4</v>
-      </c>
-      <c r="AG39">
-        <v>2.11</v>
-      </c>
-      <c r="AH39">
-        <v>1.37</v>
-      </c>
-      <c r="AI39">
-        <v>2.84</v>
-      </c>
-      <c r="AJ39">
-        <v>1.68</v>
-      </c>
-      <c r="AK39">
-        <v>2.11</v>
-      </c>
-      <c r="AL39">
-        <v>2.12</v>
-      </c>
-      <c r="AM39">
-        <v>1.64</v>
-      </c>
-      <c r="AN39">
-        <v>2.84</v>
-      </c>
       <c r="AO39">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="AP39">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="AQ39">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="40" spans="1:43">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B40" s="2">
         <v>45359</v>
@@ -6065,7 +6065,7 @@
         <v>80</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s">
         <v>122</v>
@@ -6074,120 +6074,120 @@
         <v>174</v>
       </c>
       <c r="G40">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="H40">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="I40">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="J40">
-        <v>1.5</v>
+        <v>3.08</v>
       </c>
       <c r="K40">
-        <v>4.3</v>
+        <v>3.53</v>
       </c>
       <c r="L40">
-        <v>6.5</v>
+        <v>1.99</v>
       </c>
       <c r="M40">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O40">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P40">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="Q40">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="R40">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="S40">
         <v>1.8</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W40">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="X40">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="Y40">
-        <v>2.49</v>
+        <v>1.27</v>
       </c>
       <c r="Z40">
-        <v>2.42</v>
+        <v>1.78</v>
       </c>
       <c r="AA40">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AB40">
-        <v>1.97</v>
+        <v>1.62</v>
       </c>
       <c r="AC40">
-        <v>1.18</v>
+        <v>1.6</v>
       </c>
       <c r="AD40">
-        <v>3.15</v>
+        <v>3.22</v>
       </c>
       <c r="AE40">
-        <v>1.36</v>
+        <v>2.19</v>
       </c>
       <c r="AF40">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AG40">
-        <v>4</v>
+        <v>1.89</v>
       </c>
       <c r="AH40">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AI40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ40">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="AK40">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AL40">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AM40">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="AN40">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AO40">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AP40">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="AQ40">
-        <v>1.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:43">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="2">
         <v>45359</v>
@@ -6196,7 +6196,7 @@
         <v>80</v>
       </c>
       <c r="D41">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
         <v>123</v>
@@ -6205,120 +6205,120 @@
         <v>175</v>
       </c>
       <c r="G41">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="H41">
-        <v>2.23</v>
+        <v>1.78</v>
       </c>
       <c r="I41">
-        <v>5.55</v>
+        <v>4.2</v>
       </c>
       <c r="J41">
+        <v>2.12</v>
+      </c>
+      <c r="K41">
+        <v>2.88</v>
+      </c>
+      <c r="L41">
+        <v>3.7</v>
+      </c>
+      <c r="M41">
+        <v>1.68</v>
+      </c>
+      <c r="N41">
+        <v>2.08</v>
+      </c>
+      <c r="O41">
+        <v>1.14</v>
+      </c>
+      <c r="P41">
+        <v>5.5</v>
+      </c>
+      <c r="Q41">
+        <v>1.52</v>
+      </c>
+      <c r="R41">
+        <v>2.35</v>
+      </c>
+      <c r="S41">
+        <v>2.9</v>
+      </c>
+      <c r="T41">
+        <v>1.36</v>
+      </c>
+      <c r="U41">
+        <v>2.4</v>
+      </c>
+      <c r="V41">
+        <v>1.53</v>
+      </c>
+      <c r="W41">
+        <v>1.3</v>
+      </c>
+      <c r="X41">
+        <v>1.35</v>
+      </c>
+      <c r="Y41">
         <v>1.57</v>
       </c>
-      <c r="K41">
-        <v>3.9</v>
-      </c>
-      <c r="L41">
-        <v>5.25</v>
-      </c>
-      <c r="M41">
-        <v>1.39</v>
-      </c>
-      <c r="N41">
-        <v>2.86</v>
-      </c>
-      <c r="O41">
-        <v>1.02</v>
-      </c>
-      <c r="P41">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Q41">
-        <v>1.27</v>
-      </c>
-      <c r="R41">
-        <v>3.28</v>
-      </c>
-      <c r="S41">
-        <v>1.84</v>
-      </c>
-      <c r="T41">
-        <v>1.84</v>
-      </c>
-      <c r="U41">
-        <v>1.94</v>
-      </c>
-      <c r="V41">
-        <v>1.81</v>
-      </c>
-      <c r="W41">
-        <v>1.14</v>
-      </c>
-      <c r="X41">
-        <v>1.24</v>
-      </c>
-      <c r="Y41">
-        <v>2.36</v>
-      </c>
       <c r="Z41">
-        <v>2.14</v>
+        <v>1</v>
       </c>
       <c r="AA41">
-        <v>1.29</v>
+        <v>0.5</v>
       </c>
       <c r="AB41">
+        <v>1.28</v>
+      </c>
+      <c r="AC41">
+        <v>1.35</v>
+      </c>
+      <c r="AD41">
+        <v>2.63</v>
+      </c>
+      <c r="AE41">
+        <v>2</v>
+      </c>
+      <c r="AF41">
+        <v>8.4</v>
+      </c>
+      <c r="AG41">
+        <v>2.11</v>
+      </c>
+      <c r="AH41">
+        <v>1.37</v>
+      </c>
+      <c r="AI41">
+        <v>2.84</v>
+      </c>
+      <c r="AJ41">
         <v>1.68</v>
       </c>
-      <c r="AC41">
-        <v>1.24</v>
-      </c>
-      <c r="AD41">
-        <v>2.92</v>
-      </c>
-      <c r="AE41">
-        <v>1.41</v>
-      </c>
-      <c r="AF41">
-        <v>9</v>
-      </c>
-      <c r="AG41">
-        <v>3.58</v>
-      </c>
-      <c r="AH41">
-        <v>1.27</v>
-      </c>
-      <c r="AI41">
-        <v>3.55</v>
-      </c>
-      <c r="AJ41">
-        <v>1.5</v>
-      </c>
       <c r="AK41">
-        <v>2.48</v>
+        <v>2.11</v>
       </c>
       <c r="AL41">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="AM41">
-        <v>1.88</v>
+        <v>1.64</v>
       </c>
       <c r="AN41">
-        <v>2.45</v>
+        <v>2.84</v>
       </c>
       <c r="AO41">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="AP41">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AQ41">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="42" spans="1:43">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B42" s="2">
         <v>45359</v>
@@ -6327,7 +6327,7 @@
         <v>80</v>
       </c>
       <c r="D42">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -6336,97 +6336,97 @@
         <v>176</v>
       </c>
       <c r="G42">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="H42">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>5.55</v>
       </c>
       <c r="J42">
-        <v>1.9</v>
+        <v>1.64</v>
       </c>
       <c r="K42">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="L42">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="M42">
         <v>1.39</v>
       </c>
       <c r="N42">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="O42">
         <v>1.02</v>
       </c>
       <c r="P42">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Q42">
+        <v>1.27</v>
+      </c>
+      <c r="R42">
+        <v>3.28</v>
+      </c>
+      <c r="S42">
+        <v>1.88</v>
+      </c>
+      <c r="T42">
+        <v>1.82</v>
+      </c>
+      <c r="U42">
+        <v>1.94</v>
+      </c>
+      <c r="V42">
+        <v>1.81</v>
+      </c>
+      <c r="W42">
+        <v>1.14</v>
+      </c>
+      <c r="X42">
+        <v>1.24</v>
+      </c>
+      <c r="Y42">
+        <v>2.36</v>
+      </c>
+      <c r="Z42">
+        <v>2.14</v>
+      </c>
+      <c r="AA42">
+        <v>1.29</v>
+      </c>
+      <c r="AB42">
+        <v>1.68</v>
+      </c>
+      <c r="AC42">
+        <v>1.24</v>
+      </c>
+      <c r="AD42">
+        <v>2.92</v>
+      </c>
+      <c r="AE42">
+        <v>1.41</v>
+      </c>
+      <c r="AF42">
         <v>9</v>
       </c>
-      <c r="Q42">
-        <v>1.3</v>
-      </c>
-      <c r="R42">
-        <v>3.3</v>
-      </c>
-      <c r="S42">
-        <v>1.93</v>
-      </c>
-      <c r="T42">
-        <v>1.83</v>
-      </c>
-      <c r="U42">
-        <v>1.78</v>
-      </c>
-      <c r="V42">
-        <v>1.95</v>
-      </c>
-      <c r="W42">
-        <v>1.25</v>
-      </c>
-      <c r="X42">
-        <v>1.25</v>
-      </c>
-      <c r="Y42">
-        <v>1.8</v>
-      </c>
-      <c r="Z42">
-        <v>2.36</v>
-      </c>
-      <c r="AA42">
-        <v>2.18</v>
-      </c>
-      <c r="AB42">
-        <v>1.69</v>
-      </c>
-      <c r="AC42">
-        <v>1.18</v>
-      </c>
-      <c r="AD42">
-        <v>2.87</v>
-      </c>
-      <c r="AE42">
-        <v>1.69</v>
-      </c>
-      <c r="AF42">
-        <v>8</v>
-      </c>
       <c r="AG42">
-        <v>2.62</v>
+        <v>3.58</v>
       </c>
       <c r="AH42">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AI42">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="AJ42">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AK42">
-        <v>2.33</v>
+        <v>2.48</v>
       </c>
       <c r="AL42">
         <v>1.92</v>
@@ -6435,21 +6435,21 @@
         <v>1.88</v>
       </c>
       <c r="AN42">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="AO42">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AQ42">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="43" spans="1:43">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2">
         <v>45359</v>
@@ -6458,7 +6458,7 @@
         <v>80</v>
       </c>
       <c r="D43">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
         <v>125</v>
@@ -6467,115 +6467,115 @@
         <v>177</v>
       </c>
       <c r="G43">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="H43">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="I43">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="J43">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="K43">
-        <v>3.6</v>
+        <v>3.22</v>
       </c>
       <c r="L43">
-        <v>2.15</v>
+        <v>3.72</v>
       </c>
       <c r="M43">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O43">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P43">
+        <v>9</v>
+      </c>
+      <c r="Q43">
+        <v>1.3</v>
+      </c>
+      <c r="R43">
+        <v>3.3</v>
+      </c>
+      <c r="S43">
+        <v>1.86</v>
+      </c>
+      <c r="T43">
+        <v>1.84</v>
+      </c>
+      <c r="U43">
+        <v>1.78</v>
+      </c>
+      <c r="V43">
+        <v>1.95</v>
+      </c>
+      <c r="W43">
+        <v>1.25</v>
+      </c>
+      <c r="X43">
+        <v>1.25</v>
+      </c>
+      <c r="Y43">
+        <v>1.8</v>
+      </c>
+      <c r="Z43">
+        <v>2.36</v>
+      </c>
+      <c r="AA43">
+        <v>2.18</v>
+      </c>
+      <c r="AB43">
+        <v>1.69</v>
+      </c>
+      <c r="AC43">
+        <v>1.18</v>
+      </c>
+      <c r="AD43">
+        <v>2.87</v>
+      </c>
+      <c r="AE43">
+        <v>1.69</v>
+      </c>
+      <c r="AF43">
         <v>8</v>
       </c>
-      <c r="Q43">
-        <v>1.29</v>
-      </c>
-      <c r="R43">
-        <v>3.5</v>
-      </c>
-      <c r="S43">
-        <v>1.8</v>
-      </c>
-      <c r="T43">
-        <v>2</v>
-      </c>
-      <c r="U43">
-        <v>1.73</v>
-      </c>
-      <c r="V43">
-        <v>2</v>
-      </c>
-      <c r="W43">
-        <v>1.58</v>
-      </c>
-      <c r="X43">
-        <v>1.24</v>
-      </c>
-      <c r="Y43">
+      <c r="AG43">
+        <v>2.62</v>
+      </c>
+      <c r="AH43">
+        <v>1.26</v>
+      </c>
+      <c r="AI43">
+        <v>3.25</v>
+      </c>
+      <c r="AJ43">
+        <v>1.49</v>
+      </c>
+      <c r="AK43">
+        <v>2.33</v>
+      </c>
+      <c r="AL43">
+        <v>1.92</v>
+      </c>
+      <c r="AM43">
+        <v>1.88</v>
+      </c>
+      <c r="AN43">
+        <v>2.38</v>
+      </c>
+      <c r="AO43">
+        <v>1.47</v>
+      </c>
+      <c r="AP43">
+        <v>3.2</v>
+      </c>
+      <c r="AQ43">
         <v>1.27</v>
-      </c>
-      <c r="Z43">
-        <v>1.78</v>
-      </c>
-      <c r="AA43">
-        <v>1.33</v>
-      </c>
-      <c r="AB43">
-        <v>1.62</v>
-      </c>
-      <c r="AC43">
-        <v>1.6</v>
-      </c>
-      <c r="AD43">
-        <v>3.22</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-      <c r="AF43">
-        <v>0</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
-      <c r="AI43">
-        <v>0</v>
-      </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
-      <c r="AK43">
-        <v>0</v>
-      </c>
-      <c r="AL43">
-        <v>0</v>
-      </c>
-      <c r="AM43">
-        <v>0</v>
-      </c>
-      <c r="AN43">
-        <v>0</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>0</v>
-      </c>
-      <c r="AQ43">
-        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:43">
@@ -6598,76 +6598,76 @@
         <v>178</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H44">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="J44">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="K44">
-        <v>3.48</v>
+        <v>4</v>
       </c>
       <c r="L44">
-        <v>2.51</v>
+        <v>1.57</v>
       </c>
       <c r="M44">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="N44">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O44">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P44">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q44">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="R44">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="S44">
+        <v>1.53</v>
+      </c>
+      <c r="T44">
+        <v>2.38</v>
+      </c>
+      <c r="U44">
+        <v>1.62</v>
+      </c>
+      <c r="V44">
+        <v>2.2</v>
+      </c>
+      <c r="W44">
+        <v>2</v>
+      </c>
+      <c r="X44">
+        <v>1.19</v>
+      </c>
+      <c r="Y44">
+        <v>1.17</v>
+      </c>
+      <c r="Z44">
+        <v>2.23</v>
+      </c>
+      <c r="AA44">
+        <v>2.85</v>
+      </c>
+      <c r="AB44">
         <v>1.7</v>
       </c>
-      <c r="T44">
-        <v>2.1</v>
-      </c>
-      <c r="U44">
-        <v>1.6</v>
-      </c>
-      <c r="V44">
-        <v>2.25</v>
-      </c>
-      <c r="W44">
-        <v>1.42</v>
-      </c>
-      <c r="X44">
-        <v>1.24</v>
-      </c>
-      <c r="Y44">
-        <v>1.45</v>
-      </c>
-      <c r="Z44">
-        <v>1.33</v>
-      </c>
-      <c r="AA44">
-        <v>1.42</v>
-      </c>
-      <c r="AB44">
-        <v>1.41</v>
-      </c>
       <c r="AC44">
-        <v>1.52</v>
+        <v>2.32</v>
       </c>
       <c r="AD44">
-        <v>2.93</v>
+        <v>4.02</v>
       </c>
       <c r="AE44">
         <v>0</v>
@@ -6729,76 +6729,76 @@
         <v>179</v>
       </c>
       <c r="G45">
-        <v>4.5</v>
+        <v>2.38</v>
       </c>
       <c r="H45">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I45">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="J45">
+        <v>1.81</v>
+      </c>
+      <c r="K45">
+        <v>3.53</v>
+      </c>
+      <c r="L45">
+        <v>3.63</v>
+      </c>
+      <c r="M45">
+        <v>1.3</v>
+      </c>
+      <c r="N45">
+        <v>3.2</v>
+      </c>
+      <c r="O45">
+        <v>1.03</v>
+      </c>
+      <c r="P45">
+        <v>11</v>
+      </c>
+      <c r="Q45">
+        <v>1.2</v>
+      </c>
+      <c r="R45">
         <v>4.33</v>
       </c>
-      <c r="K45">
-        <v>4</v>
-      </c>
-      <c r="L45">
-        <v>1.57</v>
-      </c>
-      <c r="M45">
-        <v>1.28</v>
-      </c>
-      <c r="N45">
-        <v>3.4</v>
-      </c>
-      <c r="O45">
-        <v>1.02</v>
-      </c>
-      <c r="P45">
-        <v>12</v>
-      </c>
-      <c r="Q45">
-        <v>1.17</v>
-      </c>
-      <c r="R45">
-        <v>4.5</v>
-      </c>
       <c r="S45">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="T45">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="U45">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V45">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W45">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="X45">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="Y45">
-        <v>1.17</v>
+        <v>1.87</v>
       </c>
       <c r="Z45">
-        <v>2.23</v>
+        <v>1.79</v>
       </c>
       <c r="AA45">
-        <v>2.85</v>
+        <v>1.31</v>
       </c>
       <c r="AB45">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="AC45">
-        <v>2.32</v>
+        <v>1.55</v>
       </c>
       <c r="AD45">
-        <v>4.02</v>
+        <v>2.9</v>
       </c>
       <c r="AE45">
         <v>0</v>
@@ -6860,46 +6860,46 @@
         <v>180</v>
       </c>
       <c r="G46">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>2.41</v>
+      </c>
+      <c r="K46">
+        <v>3.55</v>
+      </c>
+      <c r="L46">
+        <v>2.41</v>
+      </c>
+      <c r="M46">
+        <v>1.33</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46">
+        <v>1.04</v>
+      </c>
+      <c r="P46">
+        <v>10</v>
+      </c>
+      <c r="Q46">
+        <v>1.22</v>
+      </c>
+      <c r="R46">
         <v>4</v>
       </c>
-      <c r="J46">
-        <v>1.86</v>
-      </c>
-      <c r="K46">
-        <v>3.72</v>
-      </c>
-      <c r="L46">
-        <v>3.67</v>
-      </c>
-      <c r="M46">
-        <v>1.3</v>
-      </c>
-      <c r="N46">
-        <v>3.2</v>
-      </c>
-      <c r="O46">
-        <v>1.03</v>
-      </c>
-      <c r="P46">
-        <v>11</v>
-      </c>
-      <c r="Q46">
-        <v>1.2</v>
-      </c>
-      <c r="R46">
-        <v>4.33</v>
-      </c>
       <c r="S46">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="T46">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="U46">
         <v>1.6</v>
@@ -6908,28 +6908,28 @@
         <v>2.25</v>
       </c>
       <c r="W46">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="X46">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="Y46">
-        <v>1.87</v>
+        <v>1.45</v>
       </c>
       <c r="Z46">
-        <v>1.79</v>
+        <v>1.33</v>
       </c>
       <c r="AA46">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="AB46">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AC46">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AD46">
-        <v>2.9</v>
+        <v>2.93</v>
       </c>
       <c r="AE46">
         <v>0</v>
@@ -7000,13 +7000,13 @@
         <v>4.75</v>
       </c>
       <c r="J47">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="K47">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="L47">
-        <v>3.8</v>
+        <v>3.42</v>
       </c>
       <c r="M47">
         <v>1.5</v>
@@ -7027,10 +7027,10 @@
         <v>2.9</v>
       </c>
       <c r="S47">
-        <v>2.28</v>
+        <v>2.23</v>
       </c>
       <c r="T47">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="U47">
         <v>2</v>
@@ -7131,13 +7131,13 @@
         <v>4.76</v>
       </c>
       <c r="J48">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="K48">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="L48">
-        <v>4.1</v>
+        <v>4.12</v>
       </c>
       <c r="M48">
         <v>1.37</v>
@@ -7158,10 +7158,10 @@
         <v>3.64</v>
       </c>
       <c r="S48">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="T48">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="U48">
         <v>1.73</v>
@@ -7262,10 +7262,10 @@
         <v>2.05</v>
       </c>
       <c r="J49">
-        <v>6</v>
+        <v>6.15</v>
       </c>
       <c r="K49">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L49">
         <v>1.5</v>
@@ -7289,10 +7289,10 @@
         <v>4</v>
       </c>
       <c r="S49">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="T49">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="U49">
         <v>1.83</v>
@@ -7393,13 +7393,13 @@
         <v>6.5</v>
       </c>
       <c r="J50">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="K50">
-        <v>5.2</v>
+        <v>5.05</v>
       </c>
       <c r="L50">
-        <v>10.5</v>
+        <v>8.35</v>
       </c>
       <c r="M50">
         <v>1.33</v>
@@ -7420,10 +7420,10 @@
         <v>4</v>
       </c>
       <c r="S50">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="T50">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="U50">
         <v>1.95</v>
@@ -7524,13 +7524,13 @@
         <v>5</v>
       </c>
       <c r="J51">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="K51">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="L51">
-        <v>4.9</v>
+        <v>4.48</v>
       </c>
       <c r="M51">
         <v>1.4</v>
@@ -7551,10 +7551,10 @@
         <v>3.25</v>
       </c>
       <c r="S51">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="T51">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="U51">
         <v>1.95</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="52" spans="1:43">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B52" s="2">
         <v>45359</v>
@@ -7646,120 +7646,120 @@
         <v>186</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J52">
+        <v>1.58</v>
+      </c>
+      <c r="K52">
+        <v>3.7</v>
+      </c>
+      <c r="L52">
+        <v>4.83</v>
+      </c>
+      <c r="M52">
+        <v>1.35</v>
+      </c>
+      <c r="N52">
+        <v>2.95</v>
+      </c>
+      <c r="O52">
+        <v>1.04</v>
+      </c>
+      <c r="P52">
+        <v>9</v>
+      </c>
+      <c r="Q52">
+        <v>1.25</v>
+      </c>
+      <c r="R52">
+        <v>3.75</v>
+      </c>
+      <c r="S52">
+        <v>1.82</v>
+      </c>
+      <c r="T52">
+        <v>1.92</v>
+      </c>
+      <c r="U52">
+        <v>1.8</v>
+      </c>
+      <c r="V52">
+        <v>1.95</v>
+      </c>
+      <c r="W52">
+        <v>1.12</v>
+      </c>
+      <c r="X52">
+        <v>1.2</v>
+      </c>
+      <c r="Y52">
+        <v>2.25</v>
+      </c>
+      <c r="Z52">
+        <v>1.42</v>
+      </c>
+      <c r="AA52">
+        <v>1.08</v>
+      </c>
+      <c r="AB52">
+        <v>1.32</v>
+      </c>
+      <c r="AC52">
+        <v>1.17</v>
+      </c>
+      <c r="AD52">
+        <v>2.49</v>
+      </c>
+      <c r="AE52">
+        <v>1.42</v>
+      </c>
+      <c r="AF52">
+        <v>10</v>
+      </c>
+      <c r="AG52">
+        <v>3.32</v>
+      </c>
+      <c r="AH52">
+        <v>1.15</v>
+      </c>
+      <c r="AI52">
+        <v>4.55</v>
+      </c>
+      <c r="AJ52">
+        <v>1.3</v>
+      </c>
+      <c r="AK52">
+        <v>3.08</v>
+      </c>
+      <c r="AL52">
+        <v>1.54</v>
+      </c>
+      <c r="AM52">
+        <v>2.25</v>
+      </c>
+      <c r="AN52">
+        <v>1.95</v>
+      </c>
+      <c r="AO52">
+        <v>1.85</v>
+      </c>
+      <c r="AP52">
         <v>2.45</v>
       </c>
-      <c r="K52">
-        <v>3.05</v>
-      </c>
-      <c r="L52">
-        <v>3</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>2.35</v>
-      </c>
-      <c r="T52">
-        <v>1.55</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>1.17</v>
-      </c>
-      <c r="AA52">
-        <v>1.42</v>
-      </c>
-      <c r="AB52">
-        <v>1.05</v>
-      </c>
-      <c r="AC52">
-        <v>1.02</v>
-      </c>
-      <c r="AD52">
-        <v>2.07</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
-      <c r="AK52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
-        <v>0</v>
-      </c>
-      <c r="AM52">
-        <v>0</v>
-      </c>
-      <c r="AN52">
-        <v>0</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
-      <c r="AP52">
-        <v>0</v>
-      </c>
       <c r="AQ52">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="53" spans="1:43">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2">
         <v>45359</v>
@@ -7777,115 +7777,115 @@
         <v>187</v>
       </c>
       <c r="G53">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="K53">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="L53">
-        <v>4.7</v>
+        <v>2.99</v>
       </c>
       <c r="M53">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="P53">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="S53">
-        <v>1.74</v>
+        <v>2.06</v>
       </c>
       <c r="T53">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="U53">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="X53">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="Y53">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="Z53">
+        <v>1.17</v>
+      </c>
+      <c r="AA53">
         <v>1.42</v>
       </c>
-      <c r="AA53">
-        <v>1.08</v>
-      </c>
       <c r="AB53">
-        <v>1.32</v>
+        <v>1.05</v>
       </c>
       <c r="AC53">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="AD53">
-        <v>2.49</v>
+        <v>2.07</v>
       </c>
       <c r="AE53">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AF53">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG53">
-        <v>3.32</v>
+        <v>0</v>
       </c>
       <c r="AH53">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AI53">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="AJ53">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AK53">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AL53">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AM53">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AN53">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AO53">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AP53">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AQ53">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2024-03-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -190,12 +190,12 @@
     <t>Netherlands Eredivisie</t>
   </si>
   <si>
+    <t>Spain Segunda División</t>
+  </si>
+  <si>
     <t>Germany Bundesliga</t>
   </si>
   <si>
-    <t>Spain Segunda División</t>
-  </si>
-  <si>
     <t>Italy Serie B</t>
   </si>
   <si>
@@ -292,6 +292,9 @@
     <t>Galatasaray</t>
   </si>
   <si>
+    <t>First Vienna</t>
+  </si>
+  <si>
     <t>Lafnitz</t>
   </si>
   <si>
@@ -304,9 +307,6 @@
     <t>SV Stripfing Weiden</t>
   </si>
   <si>
-    <t>First Vienna</t>
-  </si>
-  <si>
     <t>Eintracht Braunschweig</t>
   </si>
   <si>
@@ -343,66 +343,66 @@
     <t>Portimonense</t>
   </si>
   <si>
+    <t>Utrecht II</t>
+  </si>
+  <si>
+    <t>Ajax II</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>Dordrecht</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>VVV</t>
+  </si>
+  <si>
+    <t>Oss</t>
+  </si>
+  <si>
     <t>AZ II</t>
   </si>
   <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>Dordrecht</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Roda JC</t>
-  </si>
-  <si>
-    <t>Utrecht II</t>
-  </si>
-  <si>
-    <t>VVV</t>
-  </si>
-  <si>
-    <t>Ajax II</t>
-  </si>
-  <si>
-    <t>Oss</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
     <t>Neuchâtel Xamax</t>
   </si>
   <si>
+    <t>SD Huesca</t>
+  </si>
+  <si>
     <t>Stuttgart</t>
   </si>
   <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Jagiellonia Białystok</t>
+  </si>
+  <si>
     <t>Leoben</t>
   </si>
   <si>
-    <t>SD Huesca</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Jagiellonia Białystok</t>
+    <t>Haverfordwest County</t>
+  </si>
+  <si>
+    <t>Bala Town</t>
   </si>
   <si>
     <t>Connah's Quay</t>
   </si>
   <si>
-    <t>Bala Town</t>
-  </si>
-  <si>
-    <t>Haverfordwest County</t>
-  </si>
-  <si>
     <t>Napoli</t>
   </si>
   <si>
@@ -448,6 +448,9 @@
     <t>Rizespor</t>
   </si>
   <si>
+    <t>Horn</t>
+  </si>
+  <si>
     <t>Floridsdorfer AC</t>
   </si>
   <si>
@@ -460,9 +463,6 @@
     <t>Amstetten</t>
   </si>
   <si>
-    <t>Horn</t>
-  </si>
-  <si>
     <t>Hansa Rostock</t>
   </si>
   <si>
@@ -499,64 +499,64 @@
     <t>Porto</t>
   </si>
   <si>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
+    <t>NAC Breda</t>
+  </si>
+  <si>
+    <t>PSV</t>
+  </si>
+  <si>
+    <t>Telstar</t>
+  </si>
+  <si>
+    <t>MVV</t>
+  </si>
+  <si>
+    <t>ADO Den Haag</t>
+  </si>
+  <si>
+    <t>Eindhoven</t>
+  </si>
+  <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
+    <t>Emmen</t>
+  </si>
+  <si>
+    <t>Den Bosch</t>
+  </si>
+  <si>
     <t>PSV II</t>
   </si>
   <si>
-    <t>PSV</t>
-  </si>
-  <si>
-    <t>Telstar</t>
-  </si>
-  <si>
-    <t>MVV</t>
-  </si>
-  <si>
-    <t>De Graafschap</t>
-  </si>
-  <si>
-    <t>ADO Den Haag</t>
-  </si>
-  <si>
-    <t>Helmond Sport</t>
-  </si>
-  <si>
-    <t>Emmen</t>
-  </si>
-  <si>
-    <t>NAC Breda</t>
-  </si>
-  <si>
-    <t>Den Bosch</t>
-  </si>
-  <si>
-    <t>Eindhoven</t>
-  </si>
-  <si>
     <t>Sion</t>
   </si>
   <si>
+    <t>FC Andorra</t>
+  </si>
+  <si>
     <t>Union Berlin</t>
   </si>
   <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Śląsk Wrocław</t>
+  </si>
+  <si>
     <t>Ried</t>
   </si>
   <si>
-    <t>FC Andorra</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Śląsk Wrocław</t>
+    <t>Penybont</t>
+  </si>
+  <si>
+    <t>Caernarfon Town</t>
   </si>
   <si>
     <t>The New Saints</t>
-  </si>
-  <si>
-    <t>Caernarfon Town</t>
-  </si>
-  <si>
-    <t>Penybont</t>
   </si>
   <si>
     <t>Torino</t>
@@ -1102,16 +1102,16 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="L2">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M2">
         <v>1.43</v>
@@ -1132,16 +1132,16 @@
         <v>2.84</v>
       </c>
       <c r="S2">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T2">
         <v>1.65</v>
       </c>
       <c r="U2">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V2">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W2">
         <v>1.57</v>
@@ -1153,10 +1153,10 @@
         <v>1.29</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AA2">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AB2">
         <v>1.25</v>
@@ -1239,10 +1239,10 @@
         <v>2.4</v>
       </c>
       <c r="K3">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>2.83</v>
+        <v>2.75</v>
       </c>
       <c r="M3">
         <v>1.45</v>
@@ -1266,7 +1266,7 @@
         <v>2.1</v>
       </c>
       <c r="T3">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U3">
         <v>1.73</v>
@@ -1284,10 +1284,10 @@
         <v>1.5</v>
       </c>
       <c r="Z3">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AA3">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AB3">
         <v>1.18</v>
@@ -1367,13 +1367,13 @@
         <v>3.2</v>
       </c>
       <c r="J4">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K4">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L4">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="M4">
         <v>1.44</v>
@@ -1388,16 +1388,16 @@
         <v>7</v>
       </c>
       <c r="Q4">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="R4">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="S4">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="T4">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="U4">
         <v>1.8</v>
@@ -1415,10 +1415,10 @@
         <v>1.4</v>
       </c>
       <c r="Z4">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AA4">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AB4">
         <v>1.34</v>
@@ -1546,10 +1546,10 @@
         <v>1.8</v>
       </c>
       <c r="Z5">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AA5">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AB5">
         <v>1.32</v>
@@ -1629,13 +1629,13 @@
         <v>7</v>
       </c>
       <c r="J6">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="K6">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="L6">
-        <v>7.15</v>
+        <v>7.5</v>
       </c>
       <c r="M6">
         <v>1.37</v>
@@ -1656,10 +1656,10 @@
         <v>3.42</v>
       </c>
       <c r="S6">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U6">
         <v>2.11</v>
@@ -1677,10 +1677,10 @@
         <v>2.88</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AA6">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AB6">
         <v>1.5</v>
@@ -1760,10 +1760,10 @@
         <v>2.05</v>
       </c>
       <c r="J7">
-        <v>5.35</v>
+        <v>5.25</v>
       </c>
       <c r="K7">
-        <v>3.88</v>
+        <v>3.9</v>
       </c>
       <c r="L7">
         <v>1.5</v>
@@ -1787,7 +1787,7 @@
         <v>3.42</v>
       </c>
       <c r="S7">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
         <v>1.91</v>
@@ -1808,10 +1808,10 @@
         <v>1.14</v>
       </c>
       <c r="Z7">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AA7">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AB7">
         <v>1.19</v>
@@ -1891,13 +1891,13 @@
         <v>4.01</v>
       </c>
       <c r="J8">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="L8">
-        <v>4.18</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
         <v>1.5</v>
@@ -1912,16 +1912,16 @@
         <v>7</v>
       </c>
       <c r="Q8">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="R8">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="S8">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="T8">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="U8">
         <v>2.05</v>
@@ -2022,13 +2022,13 @@
         <v>7.6</v>
       </c>
       <c r="J9">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="K9">
-        <v>5.55</v>
+        <v>5.75</v>
       </c>
       <c r="L9">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="M9">
         <v>1.22</v>
@@ -2144,115 +2144,115 @@
         <v>144</v>
       </c>
       <c r="G10">
+        <v>2.3</v>
+      </c>
+      <c r="H10">
+        <v>2.25</v>
+      </c>
+      <c r="I10">
         <v>4.33</v>
       </c>
-      <c r="H10">
-        <v>2.2</v>
-      </c>
-      <c r="I10">
-        <v>2.4</v>
-      </c>
       <c r="J10">
-        <v>3.48</v>
+        <v>1.75</v>
       </c>
       <c r="K10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L10">
-        <v>1.86</v>
+        <v>3.7</v>
       </c>
       <c r="M10">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="N10">
-        <v>3.04</v>
+        <v>3.28</v>
       </c>
       <c r="O10">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P10">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="Q10">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="R10">
-        <v>3.56</v>
+        <v>4.05</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T10">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="U10">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V10">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>1.92</v>
+        <v>1.22</v>
       </c>
       <c r="X10">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="Y10">
-        <v>1.23</v>
+        <v>2</v>
       </c>
       <c r="Z10">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AA10">
-        <v>1.88</v>
+        <v>0.67</v>
       </c>
       <c r="AB10">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="AC10">
-        <v>1.49</v>
+        <v>1.25</v>
       </c>
       <c r="AD10">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="AE10">
+        <v>1.38</v>
+      </c>
+      <c r="AF10">
+        <v>7.6</v>
+      </c>
+      <c r="AG10">
+        <v>4.1</v>
+      </c>
+      <c r="AH10">
+        <v>1.19</v>
+      </c>
+      <c r="AI10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ10">
+        <v>1.33</v>
+      </c>
+      <c r="AK10">
+        <v>3.05</v>
+      </c>
+      <c r="AL10">
+        <v>2.1</v>
+      </c>
+      <c r="AM10">
+        <v>2.21</v>
+      </c>
+      <c r="AN10">
+        <v>2.04</v>
+      </c>
+      <c r="AO10">
+        <v>1.76</v>
+      </c>
+      <c r="AP10">
         <v>2.62</v>
       </c>
-      <c r="AF10">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AG10">
-        <v>1.61</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>1.5</v>
-      </c>
-      <c r="AM10">
-        <v>2.47</v>
-      </c>
-      <c r="AN10">
-        <v>1.83</v>
-      </c>
-      <c r="AO10">
-        <v>1.96</v>
-      </c>
-      <c r="AP10">
-        <v>2.25</v>
-      </c>
       <c r="AQ10">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2275,115 +2275,115 @@
         <v>145</v>
       </c>
       <c r="G11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>2.2</v>
       </c>
       <c r="I11">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J11">
+        <v>3.7</v>
+      </c>
+      <c r="K11">
+        <v>3.5</v>
+      </c>
+      <c r="L11">
+        <v>1.8</v>
+      </c>
+      <c r="M11">
+        <v>1.35</v>
+      </c>
+      <c r="N11">
+        <v>3.04</v>
+      </c>
+      <c r="O11">
+        <v>1.01</v>
+      </c>
+      <c r="P11">
+        <v>9.9</v>
+      </c>
+      <c r="Q11">
+        <v>1.23</v>
+      </c>
+      <c r="R11">
+        <v>3.56</v>
+      </c>
+      <c r="S11">
+        <v>1.8</v>
+      </c>
+      <c r="T11">
+        <v>1.91</v>
+      </c>
+      <c r="U11">
+        <v>1.8</v>
+      </c>
+      <c r="V11">
+        <v>1.91</v>
+      </c>
+      <c r="W11">
+        <v>1.92</v>
+      </c>
+      <c r="X11">
+        <v>1.26</v>
+      </c>
+      <c r="Y11">
+        <v>1.23</v>
+      </c>
+      <c r="Z11">
+        <v>1.67</v>
+      </c>
+      <c r="AA11">
+        <v>1.88</v>
+      </c>
+      <c r="AB11">
+        <v>1.51</v>
+      </c>
+      <c r="AC11">
+        <v>1.49</v>
+      </c>
+      <c r="AD11">
+        <v>3</v>
+      </c>
+      <c r="AE11">
         <v>2.62</v>
       </c>
-      <c r="K11">
+      <c r="AF11">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AG11">
+        <v>1.61</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>1.28</v>
+      </c>
+      <c r="AK11">
         <v>3.3</v>
       </c>
-      <c r="L11">
-        <v>2.35</v>
-      </c>
-      <c r="M11">
-        <v>1.34</v>
-      </c>
-      <c r="N11">
-        <v>3.1</v>
-      </c>
-      <c r="O11">
-        <v>1.05</v>
-      </c>
-      <c r="P11">
-        <v>10.5</v>
-      </c>
-      <c r="Q11">
-        <v>1.21</v>
-      </c>
-      <c r="R11">
-        <v>3.74</v>
-      </c>
-      <c r="S11">
-        <v>1.75</v>
-      </c>
-      <c r="T11">
+      <c r="AL11">
         <v>2</v>
       </c>
-      <c r="U11">
-        <v>1.67</v>
-      </c>
-      <c r="V11">
-        <v>2.1</v>
-      </c>
-      <c r="W11">
-        <v>1.68</v>
-      </c>
-      <c r="X11">
-        <v>1.28</v>
-      </c>
-      <c r="Y11">
-        <v>1.33</v>
-      </c>
-      <c r="Z11">
-        <v>1.38</v>
-      </c>
-      <c r="AA11">
-        <v>1.25</v>
-      </c>
-      <c r="AB11">
-        <v>1.3</v>
-      </c>
-      <c r="AC11">
-        <v>1.59</v>
-      </c>
-      <c r="AD11">
-        <v>2.89</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>1.37</v>
-      </c>
-      <c r="AK11">
-        <v>2.85</v>
-      </c>
-      <c r="AL11">
-        <v>1.74</v>
-      </c>
       <c r="AM11">
-        <v>2.04</v>
+        <v>2.47</v>
       </c>
       <c r="AN11">
-        <v>2.17</v>
+        <v>1.83</v>
       </c>
       <c r="AO11">
-        <v>1.65</v>
+        <v>1.96</v>
       </c>
       <c r="AP11">
-        <v>2.85</v>
+        <v>2.25</v>
       </c>
       <c r="AQ11">
-        <v>1.37</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2406,31 +2406,31 @@
         <v>146</v>
       </c>
       <c r="G12">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="H12">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="J12">
-        <v>1.43</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="L12">
-        <v>5.55</v>
+        <v>2.1</v>
       </c>
       <c r="M12">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="N12">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="O12">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P12">
         <v>10.5</v>
@@ -2442,79 +2442,79 @@
         <v>3.74</v>
       </c>
       <c r="S12">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="T12">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="U12">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="V12">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="W12">
-        <v>1.09</v>
+        <v>1.68</v>
       </c>
       <c r="X12">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="Y12">
-        <v>2.68</v>
+        <v>1.33</v>
       </c>
       <c r="Z12">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AA12">
+        <v>1.25</v>
+      </c>
+      <c r="AB12">
+        <v>1.3</v>
+      </c>
+      <c r="AC12">
+        <v>1.59</v>
+      </c>
+      <c r="AD12">
+        <v>2.89</v>
+      </c>
+      <c r="AE12">
+        <v>2.78</v>
+      </c>
+      <c r="AF12">
+        <v>7.1</v>
+      </c>
+      <c r="AG12">
         <v>1.67</v>
       </c>
-      <c r="AB12">
-        <v>1.54</v>
-      </c>
-      <c r="AC12">
-        <v>1.28</v>
-      </c>
-      <c r="AD12">
-        <v>2.82</v>
-      </c>
-      <c r="AE12">
-        <v>1.27</v>
-      </c>
-      <c r="AF12">
-        <v>11</v>
-      </c>
-      <c r="AG12">
-        <v>4.4</v>
-      </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AJ12">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="AK12">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="AL12">
-        <v>1.6</v>
+        <v>2.38</v>
       </c>
       <c r="AM12">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="AN12">
-        <v>1.98</v>
+        <v>2.17</v>
       </c>
       <c r="AO12">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="AP12">
-        <v>2.52</v>
+        <v>2.85</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2537,115 +2537,115 @@
         <v>147</v>
       </c>
       <c r="G13">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>2.3</v>
       </c>
       <c r="I13">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="J13">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="K13">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <v>1.33</v>
+      </c>
+      <c r="N13">
+        <v>3.14</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>10.5</v>
+      </c>
+      <c r="Q13">
+        <v>1.21</v>
+      </c>
+      <c r="R13">
+        <v>3.74</v>
+      </c>
+      <c r="S13">
+        <v>1.73</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>1.83</v>
+      </c>
+      <c r="V13">
+        <v>1.83</v>
+      </c>
+      <c r="W13">
+        <v>1.09</v>
+      </c>
+      <c r="X13">
+        <v>1.18</v>
+      </c>
+      <c r="Y13">
+        <v>2.68</v>
+      </c>
+      <c r="Z13">
+        <v>1.33</v>
+      </c>
+      <c r="AA13">
+        <v>1.67</v>
+      </c>
+      <c r="AB13">
+        <v>1.54</v>
+      </c>
+      <c r="AC13">
+        <v>1.28</v>
+      </c>
+      <c r="AD13">
+        <v>2.82</v>
+      </c>
+      <c r="AE13">
+        <v>1.26</v>
+      </c>
+      <c r="AF13">
+        <v>11</v>
+      </c>
+      <c r="AG13">
+        <v>4.55</v>
+      </c>
+      <c r="AH13">
+        <v>1.19</v>
+      </c>
+      <c r="AI13">
+        <v>4.4</v>
+      </c>
+      <c r="AJ13">
+        <v>1.29</v>
+      </c>
+      <c r="AK13">
         <v>3.3</v>
       </c>
-      <c r="M13">
-        <v>1.28</v>
-      </c>
-      <c r="N13">
-        <v>3.4</v>
-      </c>
-      <c r="O13">
-        <v>1.02</v>
-      </c>
-      <c r="P13">
-        <v>12</v>
-      </c>
-      <c r="Q13">
-        <v>1.18</v>
-      </c>
-      <c r="R13">
-        <v>4.5</v>
-      </c>
-      <c r="S13">
-        <v>1.59</v>
-      </c>
-      <c r="T13">
-        <v>2.27</v>
-      </c>
-      <c r="U13">
-        <v>1.53</v>
-      </c>
-      <c r="V13">
-        <v>2.38</v>
-      </c>
-      <c r="W13">
-        <v>1.36</v>
-      </c>
-      <c r="X13">
-        <v>1.2</v>
-      </c>
-      <c r="Y13">
-        <v>1.72</v>
-      </c>
-      <c r="Z13">
-        <v>1.63</v>
-      </c>
-      <c r="AA13">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AB13">
-        <v>1.19</v>
-      </c>
-      <c r="AC13">
-        <v>1.06</v>
-      </c>
-      <c r="AD13">
-        <v>2.25</v>
-      </c>
-      <c r="AE13">
-        <v>2.2</v>
-      </c>
-      <c r="AF13">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG13">
-        <v>1.86</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>1.37</v>
-      </c>
-      <c r="AK13">
-        <v>2.85</v>
-      </c>
       <c r="AL13">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AM13">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="AN13">
-        <v>2.17</v>
+        <v>1.98</v>
       </c>
       <c r="AO13">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="AP13">
-        <v>2.85</v>
+        <v>2.52</v>
       </c>
       <c r="AQ13">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2668,115 +2668,115 @@
         <v>148</v>
       </c>
       <c r="G14">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="H14">
         <v>2.3</v>
       </c>
       <c r="I14">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="K14">
-        <v>3.63</v>
+        <v>3.5</v>
       </c>
       <c r="L14">
-        <v>3.63</v>
+        <v>2.8</v>
       </c>
       <c r="M14">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="N14">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="O14">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q14">
         <v>1.18</v>
       </c>
       <c r="R14">
-        <v>4.05</v>
+        <v>4.5</v>
       </c>
       <c r="S14">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T14">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="V14">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W14">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="X14">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="Y14">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="Z14">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AA14">
-        <v>0.67</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB14">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AC14">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AD14">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AJ14">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AK14">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="AL14">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AM14">
-        <v>2.21</v>
+        <v>2.04</v>
       </c>
       <c r="AN14">
-        <v>2.04</v>
+        <v>2.17</v>
       </c>
       <c r="AO14">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="AP14">
-        <v>2.62</v>
+        <v>2.85</v>
       </c>
       <c r="AQ14">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2808,13 +2808,13 @@
         <v>4.97</v>
       </c>
       <c r="J15">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="K15">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L15">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="M15">
         <v>1.39</v>
@@ -2835,7 +2835,7 @@
         <v>3.65</v>
       </c>
       <c r="S15">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
         <v>1.91</v>
@@ -2939,13 +2939,13 @@
         <v>3</v>
       </c>
       <c r="J16">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="K16">
-        <v>3.82</v>
+        <v>3.6</v>
       </c>
       <c r="L16">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="M16">
         <v>1.24</v>
@@ -3070,13 +3070,13 @@
         <v>5</v>
       </c>
       <c r="J17">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="K17">
-        <v>3.68</v>
+        <v>3.75</v>
       </c>
       <c r="L17">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="M17">
         <v>1.36</v>
@@ -3097,10 +3097,10 @@
         <v>3.77</v>
       </c>
       <c r="S17">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T17">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="U17">
         <v>1.8</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K18">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="L18">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -3228,10 +3228,10 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -3332,13 +3332,13 @@
         <v>1.83</v>
       </c>
       <c r="J19">
-        <v>8.300000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="K19">
-        <v>5.25</v>
+        <v>4.6</v>
       </c>
       <c r="L19">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M19">
         <v>1.29</v>
@@ -3359,10 +3359,10 @@
         <v>4.83</v>
       </c>
       <c r="S19">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U19">
         <v>1.8</v>
@@ -3463,13 +3463,13 @@
         <v>5.2</v>
       </c>
       <c r="J20">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="K20">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L20">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="M20">
         <v>1.45</v>
@@ -3493,7 +3493,7 @@
         <v>2.1</v>
       </c>
       <c r="T20">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U20">
         <v>1.99</v>
@@ -3725,13 +3725,13 @@
         <v>3.55</v>
       </c>
       <c r="J22">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="K22">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="L22">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="M22">
         <v>1.5</v>
@@ -3746,16 +3746,16 @@
         <v>6.75</v>
       </c>
       <c r="Q22">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R22">
+        <v>2.55</v>
+      </c>
+      <c r="S22">
         <v>2.45</v>
       </c>
-      <c r="S22">
-        <v>2.35</v>
-      </c>
       <c r="T22">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U22">
         <v>2.1</v>
@@ -3856,13 +3856,13 @@
         <v>2.89</v>
       </c>
       <c r="J23">
-        <v>2.68</v>
+        <v>2.75</v>
       </c>
       <c r="K23">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>2.58</v>
+        <v>2.37</v>
       </c>
       <c r="M23">
         <v>1.44</v>
@@ -3987,13 +3987,13 @@
         <v>2.57</v>
       </c>
       <c r="J24">
-        <v>3.62</v>
+        <v>3.4</v>
       </c>
       <c r="K24">
-        <v>3.22</v>
+        <v>3.1</v>
       </c>
       <c r="L24">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="M24">
         <v>1.43</v>
@@ -4017,7 +4017,7 @@
         <v>2</v>
       </c>
       <c r="T24">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U24">
         <v>1.84</v>
@@ -4109,7 +4109,7 @@
         <v>159</v>
       </c>
       <c r="G25">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H25">
         <v>2.25</v>
@@ -4118,13 +4118,13 @@
         <v>2.88</v>
       </c>
       <c r="J25">
-        <v>3.27</v>
+        <v>2.62</v>
       </c>
       <c r="K25">
-        <v>3.53</v>
+        <v>3.4</v>
       </c>
       <c r="L25">
-        <v>1.96</v>
+        <v>2.25</v>
       </c>
       <c r="M25">
         <v>1.3</v>
@@ -4148,13 +4148,13 @@
         <v>1.61</v>
       </c>
       <c r="T25">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="U25">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V25">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W25">
         <v>1.53</v>
@@ -4181,13 +4181,13 @@
         <v>2.83</v>
       </c>
       <c r="AE25">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="AF25">
         <v>9</v>
       </c>
       <c r="AG25">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -4249,13 +4249,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="K26">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -4276,10 +4276,10 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="T26">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -4371,120 +4371,120 @@
         <v>161</v>
       </c>
       <c r="G27">
+        <v>3.42</v>
+      </c>
+      <c r="H27">
+        <v>2.33</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>2.9</v>
+      </c>
+      <c r="K27">
+        <v>3.5</v>
+      </c>
+      <c r="L27">
+        <v>2.35</v>
+      </c>
+      <c r="M27">
+        <v>1.34</v>
+      </c>
+      <c r="N27">
+        <v>3.29</v>
+      </c>
+      <c r="O27">
+        <v>1.04</v>
+      </c>
+      <c r="P27">
+        <v>13</v>
+      </c>
+      <c r="Q27">
+        <v>1.25</v>
+      </c>
+      <c r="R27">
+        <v>3.75</v>
+      </c>
+      <c r="S27">
+        <v>1.8</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>1.63</v>
+      </c>
+      <c r="V27">
+        <v>2.2</v>
+      </c>
+      <c r="W27">
+        <v>1.6</v>
+      </c>
+      <c r="X27">
+        <v>1.25</v>
+      </c>
+      <c r="Y27">
+        <v>1.42</v>
+      </c>
+      <c r="Z27">
+        <v>1.31</v>
+      </c>
+      <c r="AA27">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AB27">
+        <v>1.3</v>
+      </c>
+      <c r="AC27">
+        <v>1.17</v>
+      </c>
+      <c r="AD27">
+        <v>2.47</v>
+      </c>
+      <c r="AE27">
+        <v>2.09</v>
+      </c>
+      <c r="AF27">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AG27">
+        <v>1.95</v>
+      </c>
+      <c r="AH27">
+        <v>1.25</v>
+      </c>
+      <c r="AI27">
+        <v>3.42</v>
+      </c>
+      <c r="AJ27">
+        <v>1.49</v>
+      </c>
+      <c r="AK27">
         <v>2.45</v>
       </c>
-      <c r="H27">
-        <v>2.5</v>
-      </c>
-      <c r="I27">
-        <v>3.75</v>
-      </c>
-      <c r="J27">
-        <v>1.95</v>
-      </c>
-      <c r="K27">
-        <v>4.33</v>
-      </c>
-      <c r="L27">
-        <v>3.4</v>
-      </c>
-      <c r="M27">
-        <v>1.22</v>
-      </c>
-      <c r="N27">
-        <v>3.9</v>
-      </c>
-      <c r="O27">
-        <v>1.01</v>
-      </c>
-      <c r="P27">
-        <v>22</v>
-      </c>
-      <c r="Q27">
-        <v>1.14</v>
-      </c>
-      <c r="R27">
-        <v>5.5</v>
-      </c>
-      <c r="S27">
-        <v>1.5</v>
-      </c>
-      <c r="T27">
-        <v>2.65</v>
-      </c>
-      <c r="U27">
-        <v>1.45</v>
-      </c>
-      <c r="V27">
-        <v>2.65</v>
-      </c>
-      <c r="W27">
-        <v>1.33</v>
-      </c>
-      <c r="X27">
-        <v>1.17</v>
-      </c>
-      <c r="Y27">
-        <v>1.87</v>
-      </c>
-      <c r="Z27">
-        <v>1.86</v>
-      </c>
-      <c r="AA27">
-        <v>0.92</v>
-      </c>
-      <c r="AB27">
+      <c r="AL27">
+        <v>1.82</v>
+      </c>
+      <c r="AM27">
+        <v>1.88</v>
+      </c>
+      <c r="AN27">
+        <v>2.35</v>
+      </c>
+      <c r="AO27">
         <v>1.52</v>
       </c>
-      <c r="AC27">
-        <v>1.5</v>
-      </c>
-      <c r="AD27">
-        <v>3.02</v>
-      </c>
-      <c r="AE27">
-        <v>1.6</v>
-      </c>
-      <c r="AF27">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AG27">
-        <v>2.91</v>
-      </c>
-      <c r="AH27">
-        <v>1.21</v>
-      </c>
-      <c r="AI27">
-        <v>3.9</v>
-      </c>
-      <c r="AJ27">
-        <v>1.41</v>
-      </c>
-      <c r="AK27">
-        <v>2.7</v>
-      </c>
-      <c r="AL27">
-        <v>1.73</v>
-      </c>
-      <c r="AM27">
-        <v>1.99</v>
-      </c>
-      <c r="AN27">
-        <v>2.2</v>
-      </c>
-      <c r="AO27">
-        <v>1.6</v>
-      </c>
       <c r="AP27">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="AQ27">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="28" spans="1:43">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2">
         <v>45359</v>
@@ -4493,7 +4493,7 @@
         <v>78</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
         <v>110</v>
@@ -4502,120 +4502,120 @@
         <v>162</v>
       </c>
       <c r="G28">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="H28">
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="I28">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="J28">
-        <v>4.9</v>
+        <v>3.25</v>
       </c>
       <c r="K28">
-        <v>5.15</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>1.51</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="N28">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="O28">
         <v>1.02</v>
       </c>
       <c r="P28">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q28">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="R28">
-        <v>6.28</v>
+        <v>5.5</v>
       </c>
       <c r="S28">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="T28">
         <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.66</v>
+        <v>1.42</v>
       </c>
       <c r="V28">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="W28">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="X28">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="Y28">
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="Z28">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AA28">
-        <v>2.67</v>
+        <v>1.5</v>
       </c>
       <c r="AB28">
-        <v>2.05</v>
+        <v>1.56</v>
       </c>
       <c r="AC28">
-        <v>2.33</v>
+        <v>1.45</v>
       </c>
       <c r="AD28">
-        <v>4.38</v>
+        <v>3.01</v>
       </c>
       <c r="AE28">
-        <v>3.95</v>
+        <v>2.5</v>
       </c>
       <c r="AF28">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="AG28">
-        <v>1.36</v>
+        <v>1.68</v>
       </c>
       <c r="AH28">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AI28">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AJ28">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AK28">
         <v>2.6</v>
       </c>
       <c r="AL28">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AM28">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="AN28">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="AO28">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AP28">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AQ28">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="29" spans="1:43">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2">
         <v>45359</v>
@@ -4624,7 +4624,7 @@
         <v>78</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
         <v>111</v>
@@ -4633,115 +4633,115 @@
         <v>163</v>
       </c>
       <c r="G29">
-        <v>2.38</v>
+        <v>6.5</v>
       </c>
       <c r="H29">
-        <v>2.38</v>
+        <v>2.85</v>
       </c>
       <c r="I29">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="J29">
-        <v>1.91</v>
+        <v>6.5</v>
       </c>
       <c r="K29">
-        <v>3.88</v>
+        <v>5.25</v>
       </c>
       <c r="L29">
-        <v>3.48</v>
+        <v>1.33</v>
       </c>
       <c r="M29">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="N29">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="O29">
         <v>1.02</v>
       </c>
       <c r="P29">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Q29">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="R29">
-        <v>4.85</v>
+        <v>6.28</v>
       </c>
       <c r="S29">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="T29">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="V29">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
       <c r="W29">
-        <v>1.28</v>
+        <v>3.3</v>
       </c>
       <c r="X29">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="Y29">
-        <v>1.84</v>
+        <v>1.05</v>
       </c>
       <c r="Z29">
-        <v>2.07</v>
+        <v>1.75</v>
       </c>
       <c r="AA29">
-        <v>0.57</v>
+        <v>2.67</v>
       </c>
       <c r="AB29">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AC29">
-        <v>1.31</v>
+        <v>2.33</v>
       </c>
       <c r="AD29">
-        <v>3.11</v>
+        <v>4.38</v>
       </c>
       <c r="AE29">
-        <v>1.68</v>
+        <v>3.95</v>
       </c>
       <c r="AF29">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG29">
-        <v>2.48</v>
+        <v>1.36</v>
       </c>
       <c r="AH29">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AI29">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="AJ29">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AK29">
-        <v>2.93</v>
+        <v>2.6</v>
       </c>
       <c r="AL29">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="AM29">
-        <v>2.21</v>
+        <v>2</v>
       </c>
       <c r="AN29">
-        <v>2.03</v>
+        <v>2.12</v>
       </c>
       <c r="AO29">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="AP29">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="AQ29">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -4764,115 +4764,115 @@
         <v>164</v>
       </c>
       <c r="G30">
-        <v>1.7</v>
+        <v>2.38</v>
       </c>
       <c r="H30">
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
       <c r="I30">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="J30">
+        <v>1.91</v>
+      </c>
+      <c r="K30">
+        <v>3.88</v>
+      </c>
+      <c r="L30">
+        <v>3.48</v>
+      </c>
+      <c r="M30">
         <v>1.25</v>
       </c>
-      <c r="K30">
-        <v>6.2</v>
-      </c>
-      <c r="L30">
-        <v>7.8</v>
-      </c>
-      <c r="M30">
-        <v>1.22</v>
-      </c>
       <c r="N30">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="O30">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P30">
         <v>12</v>
       </c>
       <c r="Q30">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="R30">
-        <v>6.2</v>
+        <v>4.85</v>
       </c>
       <c r="S30">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="T30">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="U30">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="V30">
-        <v>1.97</v>
+        <v>2.46</v>
       </c>
       <c r="W30">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="X30">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="Y30">
-        <v>3.75</v>
+        <v>1.84</v>
       </c>
       <c r="Z30">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AA30">
-        <v>1.29</v>
+        <v>0.57</v>
       </c>
       <c r="AB30">
-        <v>2.01</v>
+        <v>1.8</v>
       </c>
       <c r="AC30">
+        <v>1.31</v>
+      </c>
+      <c r="AD30">
+        <v>3.11</v>
+      </c>
+      <c r="AE30">
+        <v>1.68</v>
+      </c>
+      <c r="AF30">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG30">
+        <v>2.48</v>
+      </c>
+      <c r="AH30">
+        <v>1.19</v>
+      </c>
+      <c r="AI30">
+        <v>4.2</v>
+      </c>
+      <c r="AJ30">
         <v>1.33</v>
       </c>
-      <c r="AD30">
-        <v>3.34</v>
-      </c>
-      <c r="AE30">
-        <v>1.09</v>
-      </c>
-      <c r="AF30">
-        <v>14.75</v>
-      </c>
-      <c r="AG30">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AH30">
-        <v>1.21</v>
-      </c>
-      <c r="AI30">
-        <v>3.9</v>
-      </c>
-      <c r="AJ30">
-        <v>1.3</v>
-      </c>
       <c r="AK30">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="AL30">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AM30">
-        <v>2.25</v>
+        <v>2.21</v>
       </c>
       <c r="AN30">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="AO30">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="AP30">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ30">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -4895,115 +4895,115 @@
         <v>165</v>
       </c>
       <c r="G31">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H31">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="I31">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="J31">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="K31">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="L31">
-        <v>2.7</v>
+        <v>7.8</v>
       </c>
       <c r="M31">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="N31">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="O31">
         <v>1.01</v>
       </c>
       <c r="P31">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q31">
+        <v>1.08</v>
+      </c>
+      <c r="R31">
+        <v>6.2</v>
+      </c>
+      <c r="S31">
+        <v>1.35</v>
+      </c>
+      <c r="T31">
+        <v>2.9</v>
+      </c>
+      <c r="U31">
+        <v>1.72</v>
+      </c>
+      <c r="V31">
+        <v>1.97</v>
+      </c>
+      <c r="W31">
+        <v>1.02</v>
+      </c>
+      <c r="X31">
+        <v>1.11</v>
+      </c>
+      <c r="Y31">
+        <v>3.75</v>
+      </c>
+      <c r="Z31">
+        <v>2</v>
+      </c>
+      <c r="AA31">
+        <v>1.29</v>
+      </c>
+      <c r="AB31">
+        <v>2.01</v>
+      </c>
+      <c r="AC31">
+        <v>1.33</v>
+      </c>
+      <c r="AD31">
+        <v>3.34</v>
+      </c>
+      <c r="AE31">
         <v>1.09</v>
       </c>
-      <c r="R31">
-        <v>5.8</v>
-      </c>
-      <c r="S31">
-        <v>1.42</v>
-      </c>
-      <c r="T31">
-        <v>2.65</v>
-      </c>
-      <c r="U31">
-        <v>1.35</v>
-      </c>
-      <c r="V31">
-        <v>2.9</v>
-      </c>
-      <c r="W31">
-        <v>1.4</v>
-      </c>
-      <c r="X31">
-        <v>1.17</v>
-      </c>
-      <c r="Y31">
-        <v>1.67</v>
-      </c>
-      <c r="Z31">
-        <v>1.36</v>
-      </c>
-      <c r="AA31">
+      <c r="AF31">
+        <v>14.75</v>
+      </c>
+      <c r="AG31">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH31">
+        <v>1.21</v>
+      </c>
+      <c r="AI31">
+        <v>3.9</v>
+      </c>
+      <c r="AJ31">
+        <v>1.3</v>
+      </c>
+      <c r="AK31">
+        <v>3.2</v>
+      </c>
+      <c r="AL31">
         <v>1.57</v>
       </c>
-      <c r="AB31">
-        <v>1.95</v>
-      </c>
-      <c r="AC31">
-        <v>1.57</v>
-      </c>
-      <c r="AD31">
-        <v>3.52</v>
-      </c>
-      <c r="AE31">
-        <v>2.05</v>
-      </c>
-      <c r="AF31">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG31">
+      <c r="AM31">
+        <v>2.25</v>
+      </c>
+      <c r="AN31">
         <v>1.96</v>
       </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>1.24</v>
-      </c>
-      <c r="AK31">
-        <v>3.48</v>
-      </c>
-      <c r="AL31">
-        <v>1.49</v>
-      </c>
-      <c r="AM31">
-        <v>2.54</v>
-      </c>
-      <c r="AN31">
-        <v>1.81</v>
-      </c>
       <c r="AO31">
-        <v>1.99</v>
+        <v>1.75</v>
       </c>
       <c r="AP31">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="32" spans="1:43">
@@ -5107,10 +5107,10 @@
         <v>1.92</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AJ32">
         <v>1.31</v>
@@ -5157,115 +5157,115 @@
         <v>167</v>
       </c>
       <c r="G33">
-        <v>3.42</v>
+        <v>1.87</v>
       </c>
       <c r="H33">
-        <v>2.33</v>
+        <v>2.55</v>
       </c>
       <c r="I33">
+        <v>6.5</v>
+      </c>
+      <c r="J33">
+        <v>1.38</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>7.5</v>
+      </c>
+      <c r="M33">
+        <v>1.28</v>
+      </c>
+      <c r="N33">
+        <v>3.4</v>
+      </c>
+      <c r="O33">
+        <v>1.02</v>
+      </c>
+      <c r="P33">
+        <v>17</v>
+      </c>
+      <c r="Q33">
+        <v>1.2</v>
+      </c>
+      <c r="R33">
+        <v>4.5</v>
+      </c>
+      <c r="S33">
+        <v>1.63</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
+        <v>1.87</v>
+      </c>
+      <c r="V33">
+        <v>1.9</v>
+      </c>
+      <c r="W33">
+        <v>1.07</v>
+      </c>
+      <c r="X33">
+        <v>1.14</v>
+      </c>
+      <c r="Y33">
         <v>3</v>
       </c>
-      <c r="J33">
-        <v>2.9</v>
-      </c>
-      <c r="K33">
-        <v>3.5</v>
-      </c>
-      <c r="L33">
-        <v>2.35</v>
-      </c>
-      <c r="M33">
-        <v>1.34</v>
-      </c>
-      <c r="N33">
-        <v>3.29</v>
-      </c>
-      <c r="O33">
-        <v>1.04</v>
-      </c>
-      <c r="P33">
-        <v>13</v>
-      </c>
-      <c r="Q33">
-        <v>1.25</v>
-      </c>
-      <c r="R33">
-        <v>3.75</v>
-      </c>
-      <c r="S33">
-        <v>1.8</v>
-      </c>
-      <c r="T33">
-        <v>2</v>
-      </c>
-      <c r="U33">
-        <v>1.63</v>
-      </c>
-      <c r="V33">
-        <v>2.2</v>
-      </c>
-      <c r="W33">
-        <v>1.6</v>
-      </c>
-      <c r="X33">
-        <v>1.25</v>
-      </c>
-      <c r="Y33">
+      <c r="Z33">
+        <v>2.29</v>
+      </c>
+      <c r="AA33">
+        <v>1.5</v>
+      </c>
+      <c r="AB33">
+        <v>1.67</v>
+      </c>
+      <c r="AC33">
         <v>1.42</v>
       </c>
-      <c r="Z33">
-        <v>1.31</v>
-      </c>
-      <c r="AA33">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AB33">
-        <v>1.3</v>
-      </c>
-      <c r="AC33">
-        <v>1.17</v>
-      </c>
       <c r="AD33">
-        <v>2.47</v>
+        <v>3.09</v>
       </c>
       <c r="AE33">
-        <v>2.09</v>
+        <v>1.29</v>
       </c>
       <c r="AF33">
-        <v>8.699999999999999</v>
+        <v>12</v>
       </c>
       <c r="AG33">
-        <v>1.95</v>
+        <v>4.34</v>
       </c>
       <c r="AH33">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI33">
-        <v>3.42</v>
+        <v>3.9</v>
       </c>
       <c r="AJ33">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AK33">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="AL33">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="AM33">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="AN33">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="AO33">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="AP33">
-        <v>3.15</v>
+        <v>2.65</v>
       </c>
       <c r="AQ33">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="34" spans="1:43">
@@ -5288,115 +5288,115 @@
         <v>168</v>
       </c>
       <c r="G34">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H34">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="I34">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J34">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="K34">
+        <v>3.8</v>
+      </c>
+      <c r="L34">
+        <v>2.7</v>
+      </c>
+      <c r="M34">
+        <v>1.25</v>
+      </c>
+      <c r="N34">
         <v>3.6</v>
       </c>
-      <c r="L34">
-        <v>2.5</v>
-      </c>
-      <c r="M34">
-        <v>1.3</v>
-      </c>
-      <c r="N34">
-        <v>3.2</v>
-      </c>
       <c r="O34">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="P34">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Q34">
-        <v>1.22</v>
+        <v>1.09</v>
       </c>
       <c r="R34">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="S34">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="T34">
-        <v>2.15</v>
+        <v>2.65</v>
       </c>
       <c r="U34">
+        <v>1.35</v>
+      </c>
+      <c r="V34">
+        <v>2.9</v>
+      </c>
+      <c r="W34">
+        <v>1.4</v>
+      </c>
+      <c r="X34">
+        <v>1.17</v>
+      </c>
+      <c r="Y34">
+        <v>1.67</v>
+      </c>
+      <c r="Z34">
+        <v>1.36</v>
+      </c>
+      <c r="AA34">
         <v>1.57</v>
       </c>
-      <c r="V34">
-        <v>2.35</v>
-      </c>
-      <c r="W34">
-        <v>1.53</v>
-      </c>
-      <c r="X34">
-        <v>1.25</v>
-      </c>
-      <c r="Y34">
-        <v>1.5</v>
-      </c>
-      <c r="Z34">
-        <v>1.71</v>
-      </c>
-      <c r="AA34">
-        <v>1.14</v>
-      </c>
       <c r="AB34">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="AC34">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AD34">
-        <v>3.08</v>
+        <v>3.52</v>
       </c>
       <c r="AE34">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="AF34">
-        <v>7.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG34">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="AH34">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AI34">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="AJ34">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AK34">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="AL34">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AM34">
-        <v>2.45</v>
+        <v>2.54</v>
       </c>
       <c r="AN34">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="AO34">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="AP34">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="AQ34">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="35" spans="1:43">
@@ -5419,115 +5419,115 @@
         <v>169</v>
       </c>
       <c r="G35">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H35">
+        <v>2.25</v>
+      </c>
+      <c r="I35">
+        <v>3.1</v>
+      </c>
+      <c r="J35">
+        <v>2.6</v>
+      </c>
+      <c r="K35">
+        <v>3.6</v>
+      </c>
+      <c r="L35">
         <v>2.5</v>
       </c>
-      <c r="I35">
-        <v>2.55</v>
-      </c>
-      <c r="J35">
-        <v>3.25</v>
-      </c>
-      <c r="K35">
-        <v>4</v>
-      </c>
-      <c r="L35">
+      <c r="M35">
+        <v>1.3</v>
+      </c>
+      <c r="N35">
+        <v>3.2</v>
+      </c>
+      <c r="O35">
+        <v>1.03</v>
+      </c>
+      <c r="P35">
+        <v>15</v>
+      </c>
+      <c r="Q35">
+        <v>1.22</v>
+      </c>
+      <c r="R35">
+        <v>4.2</v>
+      </c>
+      <c r="S35">
+        <v>1.7</v>
+      </c>
+      <c r="T35">
+        <v>2.15</v>
+      </c>
+      <c r="U35">
+        <v>1.57</v>
+      </c>
+      <c r="V35">
+        <v>2.35</v>
+      </c>
+      <c r="W35">
+        <v>1.53</v>
+      </c>
+      <c r="X35">
+        <v>1.25</v>
+      </c>
+      <c r="Y35">
+        <v>1.5</v>
+      </c>
+      <c r="Z35">
+        <v>1.71</v>
+      </c>
+      <c r="AA35">
+        <v>1.14</v>
+      </c>
+      <c r="AB35">
+        <v>1.64</v>
+      </c>
+      <c r="AC35">
+        <v>1.44</v>
+      </c>
+      <c r="AD35">
+        <v>3.08</v>
+      </c>
+      <c r="AE35">
+        <v>2.13</v>
+      </c>
+      <c r="AF35">
+        <v>7.7</v>
+      </c>
+      <c r="AG35">
         <v>2</v>
       </c>
-      <c r="M35">
-        <v>1.22</v>
-      </c>
-      <c r="N35">
-        <v>3.9</v>
-      </c>
-      <c r="O35">
-        <v>1.02</v>
-      </c>
-      <c r="P35">
-        <v>13</v>
-      </c>
-      <c r="Q35">
-        <v>1.14</v>
-      </c>
-      <c r="R35">
-        <v>5.5</v>
-      </c>
-      <c r="S35">
-        <v>1.45</v>
-      </c>
-      <c r="T35">
-        <v>2.75</v>
-      </c>
-      <c r="U35">
-        <v>1.42</v>
-      </c>
-      <c r="V35">
-        <v>2.8</v>
-      </c>
-      <c r="W35">
-        <v>1.8</v>
-      </c>
-      <c r="X35">
-        <v>1.2</v>
-      </c>
-      <c r="Y35">
-        <v>1.35</v>
-      </c>
-      <c r="Z35">
-        <v>1.69</v>
-      </c>
-      <c r="AA35">
-        <v>1.5</v>
-      </c>
-      <c r="AB35">
-        <v>1.56</v>
-      </c>
-      <c r="AC35">
-        <v>1.45</v>
-      </c>
-      <c r="AD35">
-        <v>3.01</v>
-      </c>
-      <c r="AE35">
-        <v>2.5</v>
-      </c>
-      <c r="AF35">
-        <v>9.1</v>
-      </c>
-      <c r="AG35">
-        <v>1.68</v>
-      </c>
       <c r="AH35">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AI35">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="AJ35">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AK35">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="AL35">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="AM35">
-        <v>1.96</v>
+        <v>2.45</v>
       </c>
       <c r="AN35">
-        <v>2.25</v>
+        <v>1.86</v>
       </c>
       <c r="AO35">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="AP35">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="AQ35">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="36" spans="1:43">
@@ -5646,7 +5646,7 @@
         <v>1.73</v>
       </c>
       <c r="AM36">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AN36">
         <v>2.16</v>
@@ -5681,88 +5681,88 @@
         <v>171</v>
       </c>
       <c r="G37">
+        <v>2.45</v>
+      </c>
+      <c r="H37">
+        <v>2.5</v>
+      </c>
+      <c r="I37">
+        <v>3.75</v>
+      </c>
+      <c r="J37">
+        <v>1.95</v>
+      </c>
+      <c r="K37">
+        <v>4.33</v>
+      </c>
+      <c r="L37">
+        <v>3.4</v>
+      </c>
+      <c r="M37">
+        <v>1.22</v>
+      </c>
+      <c r="N37">
+        <v>3.9</v>
+      </c>
+      <c r="O37">
+        <v>1.01</v>
+      </c>
+      <c r="P37">
+        <v>22</v>
+      </c>
+      <c r="Q37">
+        <v>1.14</v>
+      </c>
+      <c r="R37">
+        <v>5.5</v>
+      </c>
+      <c r="S37">
+        <v>1.5</v>
+      </c>
+      <c r="T37">
+        <v>2.65</v>
+      </c>
+      <c r="U37">
+        <v>1.45</v>
+      </c>
+      <c r="V37">
+        <v>2.65</v>
+      </c>
+      <c r="W37">
+        <v>1.33</v>
+      </c>
+      <c r="X37">
+        <v>1.17</v>
+      </c>
+      <c r="Y37">
         <v>1.87</v>
       </c>
-      <c r="H37">
-        <v>2.55</v>
-      </c>
-      <c r="I37">
-        <v>6.5</v>
-      </c>
-      <c r="J37">
-        <v>1.38</v>
-      </c>
-      <c r="K37">
-        <v>5</v>
-      </c>
-      <c r="L37">
-        <v>7.5</v>
-      </c>
-      <c r="M37">
-        <v>1.28</v>
-      </c>
-      <c r="N37">
-        <v>3.4</v>
-      </c>
-      <c r="O37">
-        <v>1.02</v>
-      </c>
-      <c r="P37">
-        <v>17</v>
-      </c>
-      <c r="Q37">
-        <v>1.2</v>
-      </c>
-      <c r="R37">
-        <v>4.5</v>
-      </c>
-      <c r="S37">
-        <v>1.63</v>
-      </c>
-      <c r="T37">
-        <v>2.25</v>
-      </c>
-      <c r="U37">
-        <v>1.87</v>
-      </c>
-      <c r="V37">
-        <v>1.9</v>
-      </c>
-      <c r="W37">
-        <v>1.07</v>
-      </c>
-      <c r="X37">
-        <v>1.14</v>
-      </c>
-      <c r="Y37">
-        <v>3</v>
-      </c>
       <c r="Z37">
-        <v>2.29</v>
+        <v>1.86</v>
       </c>
       <c r="AA37">
+        <v>0.92</v>
+      </c>
+      <c r="AB37">
+        <v>1.52</v>
+      </c>
+      <c r="AC37">
         <v>1.5</v>
       </c>
-      <c r="AB37">
-        <v>1.67</v>
-      </c>
-      <c r="AC37">
-        <v>1.42</v>
-      </c>
       <c r="AD37">
-        <v>3.09</v>
+        <v>3.02</v>
       </c>
       <c r="AE37">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="AF37">
-        <v>12</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AG37">
-        <v>4.34</v>
+        <v>2.91</v>
       </c>
       <c r="AH37">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AI37">
         <v>3.9</v>
@@ -5774,22 +5774,22 @@
         <v>2.7</v>
       </c>
       <c r="AL37">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AM37">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AN37">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AO37">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AP37">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="AQ37">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="38" spans="1:43">
@@ -5812,22 +5812,22 @@
         <v>172</v>
       </c>
       <c r="G38">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I38">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="J38">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="K38">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L38">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="M38">
         <v>1.34</v>
@@ -5848,10 +5848,10 @@
         <v>3.74</v>
       </c>
       <c r="S38">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="T38">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U38">
         <v>1.73</v>
@@ -5884,28 +5884,28 @@
         <v>3.19</v>
       </c>
       <c r="AE38">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="AF38">
         <v>8.800000000000001</v>
       </c>
       <c r="AG38">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI38">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AJ38">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AL38">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="AM38">
         <v>2.11</v>
@@ -5917,10 +5917,10 @@
         <v>1.7</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="39" spans="1:43">
@@ -5934,7 +5934,7 @@
         <v>80</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
         <v>121</v>
@@ -5943,120 +5943,120 @@
         <v>173</v>
       </c>
       <c r="G39">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="H39">
-        <v>2.38</v>
+        <v>1.78</v>
       </c>
       <c r="I39">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="J39">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="K39">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="L39">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>1.33</v>
+        <v>1.68</v>
       </c>
       <c r="N39">
-        <v>3.25</v>
+        <v>2.08</v>
       </c>
       <c r="O39">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="P39">
-        <v>14.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q39">
-        <v>1.22</v>
+        <v>1.61</v>
       </c>
       <c r="R39">
+        <v>2.15</v>
+      </c>
+      <c r="S39">
+        <v>2.9</v>
+      </c>
+      <c r="T39">
+        <v>1.36</v>
+      </c>
+      <c r="U39">
+        <v>2.4</v>
+      </c>
+      <c r="V39">
+        <v>1.53</v>
+      </c>
+      <c r="W39">
+        <v>1.3</v>
+      </c>
+      <c r="X39">
+        <v>1.35</v>
+      </c>
+      <c r="Y39">
+        <v>1.57</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>0.5</v>
+      </c>
+      <c r="AB39">
+        <v>1.28</v>
+      </c>
+      <c r="AC39">
+        <v>1.35</v>
+      </c>
+      <c r="AD39">
+        <v>2.63</v>
+      </c>
+      <c r="AE39">
+        <v>2</v>
+      </c>
+      <c r="AF39">
+        <v>8.4</v>
+      </c>
+      <c r="AG39">
+        <v>2.11</v>
+      </c>
+      <c r="AH39">
+        <v>1.37</v>
+      </c>
+      <c r="AI39">
+        <v>2.84</v>
+      </c>
+      <c r="AJ39">
+        <v>1.68</v>
+      </c>
+      <c r="AK39">
+        <v>2.11</v>
+      </c>
+      <c r="AL39">
+        <v>2.12</v>
+      </c>
+      <c r="AM39">
+        <v>1.64</v>
+      </c>
+      <c r="AN39">
+        <v>2.84</v>
+      </c>
+      <c r="AO39">
+        <v>1.35</v>
+      </c>
+      <c r="AP39">
         <v>4</v>
       </c>
-      <c r="S39">
-        <v>1.63</v>
-      </c>
-      <c r="T39">
-        <v>2.14</v>
-      </c>
-      <c r="U39">
-        <v>1.95</v>
-      </c>
-      <c r="V39">
-        <v>1.8</v>
-      </c>
-      <c r="W39">
-        <v>1.08</v>
-      </c>
-      <c r="X39">
-        <v>1.18</v>
-      </c>
-      <c r="Y39">
-        <v>2.49</v>
-      </c>
-      <c r="Z39">
-        <v>2.42</v>
-      </c>
-      <c r="AA39">
-        <v>0.67</v>
-      </c>
-      <c r="AB39">
-        <v>1.97</v>
-      </c>
-      <c r="AC39">
-        <v>1.18</v>
-      </c>
-      <c r="AD39">
-        <v>3.15</v>
-      </c>
-      <c r="AE39">
-        <v>1.36</v>
-      </c>
-      <c r="AF39">
-        <v>9</v>
-      </c>
-      <c r="AG39">
-        <v>4</v>
-      </c>
-      <c r="AH39">
-        <v>1.29</v>
-      </c>
-      <c r="AI39">
-        <v>3</v>
-      </c>
-      <c r="AJ39">
-        <v>1.54</v>
-      </c>
-      <c r="AK39">
-        <v>2.25</v>
-      </c>
-      <c r="AL39">
-        <v>1.91</v>
-      </c>
-      <c r="AM39">
-        <v>1.78</v>
-      </c>
-      <c r="AN39">
-        <v>2.4</v>
-      </c>
-      <c r="AO39">
-        <v>1.46</v>
-      </c>
-      <c r="AP39">
-        <v>3.15</v>
-      </c>
       <c r="AQ39">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="40" spans="1:43">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B40" s="2">
         <v>45359</v>
@@ -6065,7 +6065,7 @@
         <v>80</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
         <v>122</v>
@@ -6074,120 +6074,120 @@
         <v>174</v>
       </c>
       <c r="G40">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="H40">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="I40">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="J40">
-        <v>3.08</v>
+        <v>1.5</v>
       </c>
       <c r="K40">
-        <v>3.53</v>
+        <v>4.2</v>
       </c>
       <c r="L40">
-        <v>1.99</v>
+        <v>6.5</v>
       </c>
       <c r="M40">
+        <v>1.33</v>
+      </c>
+      <c r="N40">
+        <v>3.25</v>
+      </c>
+      <c r="O40">
+        <v>1.06</v>
+      </c>
+      <c r="P40">
+        <v>14.5</v>
+      </c>
+      <c r="Q40">
+        <v>1.22</v>
+      </c>
+      <c r="R40">
+        <v>4</v>
+      </c>
+      <c r="S40">
+        <v>1.67</v>
+      </c>
+      <c r="T40">
+        <v>2.05</v>
+      </c>
+      <c r="U40">
+        <v>1.95</v>
+      </c>
+      <c r="V40">
+        <v>1.8</v>
+      </c>
+      <c r="W40">
+        <v>1.08</v>
+      </c>
+      <c r="X40">
+        <v>1.18</v>
+      </c>
+      <c r="Y40">
+        <v>2.49</v>
+      </c>
+      <c r="Z40">
+        <v>2.42</v>
+      </c>
+      <c r="AA40">
+        <v>0.67</v>
+      </c>
+      <c r="AB40">
+        <v>1.97</v>
+      </c>
+      <c r="AC40">
+        <v>1.18</v>
+      </c>
+      <c r="AD40">
+        <v>3.15</v>
+      </c>
+      <c r="AE40">
         <v>1.36</v>
       </c>
-      <c r="N40">
+      <c r="AF40">
+        <v>9</v>
+      </c>
+      <c r="AG40">
+        <v>4</v>
+      </c>
+      <c r="AH40">
+        <v>1.29</v>
+      </c>
+      <c r="AI40">
         <v>3</v>
       </c>
-      <c r="O40">
-        <v>1.05</v>
-      </c>
-      <c r="P40">
-        <v>8</v>
-      </c>
-      <c r="Q40">
-        <v>1.29</v>
-      </c>
-      <c r="R40">
-        <v>3.5</v>
-      </c>
-      <c r="S40">
-        <v>1.8</v>
-      </c>
-      <c r="T40">
-        <v>1.94</v>
-      </c>
-      <c r="U40">
-        <v>1.67</v>
-      </c>
-      <c r="V40">
-        <v>2.1</v>
-      </c>
-      <c r="W40">
-        <v>1.58</v>
-      </c>
-      <c r="X40">
-        <v>1.24</v>
-      </c>
-      <c r="Y40">
+      <c r="AJ40">
+        <v>1.54</v>
+      </c>
+      <c r="AK40">
+        <v>2.25</v>
+      </c>
+      <c r="AL40">
+        <v>1.91</v>
+      </c>
+      <c r="AM40">
+        <v>1.78</v>
+      </c>
+      <c r="AN40">
+        <v>2.4</v>
+      </c>
+      <c r="AO40">
+        <v>1.46</v>
+      </c>
+      <c r="AP40">
+        <v>3.15</v>
+      </c>
+      <c r="AQ40">
         <v>1.27</v>
-      </c>
-      <c r="Z40">
-        <v>1.78</v>
-      </c>
-      <c r="AA40">
-        <v>1.33</v>
-      </c>
-      <c r="AB40">
-        <v>1.62</v>
-      </c>
-      <c r="AC40">
-        <v>1.6</v>
-      </c>
-      <c r="AD40">
-        <v>3.22</v>
-      </c>
-      <c r="AE40">
-        <v>2.19</v>
-      </c>
-      <c r="AF40">
-        <v>8.4</v>
-      </c>
-      <c r="AG40">
-        <v>1.89</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <v>0</v>
-      </c>
-      <c r="AJ40">
-        <v>1.75</v>
-      </c>
-      <c r="AK40">
-        <v>2.05</v>
-      </c>
-      <c r="AL40">
-        <v>2.2</v>
-      </c>
-      <c r="AM40">
-        <v>1.64</v>
-      </c>
-      <c r="AN40">
-        <v>0</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>0</v>
-      </c>
-      <c r="AQ40">
-        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:43">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2">
         <v>45359</v>
@@ -6196,7 +6196,7 @@
         <v>80</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
         <v>123</v>
@@ -6205,120 +6205,120 @@
         <v>175</v>
       </c>
       <c r="G41">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="H41">
-        <v>1.78</v>
+        <v>2.23</v>
       </c>
       <c r="I41">
-        <v>4.2</v>
+        <v>5.55</v>
       </c>
       <c r="J41">
-        <v>2.12</v>
+        <v>1.57</v>
       </c>
       <c r="K41">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="L41">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="M41">
+        <v>1.39</v>
+      </c>
+      <c r="N41">
+        <v>2.86</v>
+      </c>
+      <c r="O41">
+        <v>1.02</v>
+      </c>
+      <c r="P41">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Q41">
+        <v>1.27</v>
+      </c>
+      <c r="R41">
+        <v>3.28</v>
+      </c>
+      <c r="S41">
+        <v>1.93</v>
+      </c>
+      <c r="T41">
+        <v>1.93</v>
+      </c>
+      <c r="U41">
+        <v>1.94</v>
+      </c>
+      <c r="V41">
+        <v>1.81</v>
+      </c>
+      <c r="W41">
+        <v>1.14</v>
+      </c>
+      <c r="X41">
+        <v>1.24</v>
+      </c>
+      <c r="Y41">
+        <v>2.36</v>
+      </c>
+      <c r="Z41">
+        <v>2.14</v>
+      </c>
+      <c r="AA41">
+        <v>1.29</v>
+      </c>
+      <c r="AB41">
         <v>1.68</v>
       </c>
-      <c r="N41">
-        <v>2.08</v>
-      </c>
-      <c r="O41">
-        <v>1.14</v>
-      </c>
-      <c r="P41">
-        <v>5.5</v>
-      </c>
-      <c r="Q41">
-        <v>1.52</v>
-      </c>
-      <c r="R41">
-        <v>2.35</v>
-      </c>
-      <c r="S41">
-        <v>2.9</v>
-      </c>
-      <c r="T41">
-        <v>1.36</v>
-      </c>
-      <c r="U41">
-        <v>2.4</v>
-      </c>
-      <c r="V41">
-        <v>1.53</v>
-      </c>
-      <c r="W41">
-        <v>1.3</v>
-      </c>
-      <c r="X41">
-        <v>1.35</v>
-      </c>
-      <c r="Y41">
-        <v>1.57</v>
-      </c>
-      <c r="Z41">
-        <v>1</v>
-      </c>
-      <c r="AA41">
-        <v>0.5</v>
-      </c>
-      <c r="AB41">
-        <v>1.28</v>
-      </c>
       <c r="AC41">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="AD41">
-        <v>2.63</v>
+        <v>2.92</v>
       </c>
       <c r="AE41">
-        <v>2</v>
+        <v>1.41</v>
       </c>
       <c r="AF41">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AG41">
-        <v>2.11</v>
+        <v>3.58</v>
       </c>
       <c r="AH41">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AI41">
-        <v>2.84</v>
+        <v>3.55</v>
       </c>
       <c r="AJ41">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="AK41">
-        <v>2.11</v>
+        <v>2.48</v>
       </c>
       <c r="AL41">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="AM41">
-        <v>1.64</v>
+        <v>1.88</v>
       </c>
       <c r="AN41">
-        <v>2.84</v>
+        <v>2.45</v>
       </c>
       <c r="AO41">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AQ41">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="42" spans="1:43">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2">
         <v>45359</v>
@@ -6327,7 +6327,7 @@
         <v>80</v>
       </c>
       <c r="D42">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -6336,97 +6336,97 @@
         <v>176</v>
       </c>
       <c r="G42">
+        <v>2.55</v>
+      </c>
+      <c r="H42">
         <v>2.15</v>
       </c>
-      <c r="H42">
-        <v>2.23</v>
-      </c>
       <c r="I42">
-        <v>5.55</v>
+        <v>4</v>
       </c>
       <c r="J42">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="K42">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L42">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M42">
         <v>1.39</v>
       </c>
       <c r="N42">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="O42">
         <v>1.02</v>
       </c>
       <c r="P42">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Q42">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="R42">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="S42">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="U42">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="V42">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="X42">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Y42">
+        <v>1.8</v>
+      </c>
+      <c r="Z42">
         <v>2.36</v>
       </c>
-      <c r="Z42">
-        <v>2.14</v>
-      </c>
       <c r="AA42">
-        <v>1.29</v>
+        <v>2.18</v>
       </c>
       <c r="AB42">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="AC42">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AD42">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="AE42">
-        <v>1.41</v>
+        <v>1.69</v>
       </c>
       <c r="AF42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG42">
-        <v>3.58</v>
+        <v>2.62</v>
       </c>
       <c r="AH42">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AI42">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="AJ42">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AK42">
-        <v>2.48</v>
+        <v>2.33</v>
       </c>
       <c r="AL42">
         <v>1.92</v>
@@ -6435,21 +6435,21 @@
         <v>1.88</v>
       </c>
       <c r="AN42">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AO42">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AP42">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AQ42">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="43" spans="1:43">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43" s="2">
         <v>45359</v>
@@ -6458,7 +6458,7 @@
         <v>80</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
         <v>125</v>
@@ -6467,115 +6467,115 @@
         <v>177</v>
       </c>
       <c r="G43">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="H43">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="J43">
-        <v>2.08</v>
+        <v>3.08</v>
       </c>
       <c r="K43">
+        <v>3.53</v>
+      </c>
+      <c r="L43">
+        <v>1.99</v>
+      </c>
+      <c r="M43">
+        <v>1.36</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <v>1.05</v>
+      </c>
+      <c r="P43">
+        <v>8</v>
+      </c>
+      <c r="Q43">
+        <v>1.29</v>
+      </c>
+      <c r="R43">
+        <v>3.5</v>
+      </c>
+      <c r="S43">
+        <v>1.8</v>
+      </c>
+      <c r="T43">
+        <v>1.94</v>
+      </c>
+      <c r="U43">
+        <v>1.8</v>
+      </c>
+      <c r="V43">
+        <v>1.91</v>
+      </c>
+      <c r="W43">
+        <v>1.58</v>
+      </c>
+      <c r="X43">
+        <v>1.24</v>
+      </c>
+      <c r="Y43">
+        <v>1.27</v>
+      </c>
+      <c r="Z43">
+        <v>1.78</v>
+      </c>
+      <c r="AA43">
+        <v>1.33</v>
+      </c>
+      <c r="AB43">
+        <v>1.62</v>
+      </c>
+      <c r="AC43">
+        <v>1.6</v>
+      </c>
+      <c r="AD43">
         <v>3.22</v>
       </c>
-      <c r="L43">
-        <v>3.72</v>
-      </c>
-      <c r="M43">
-        <v>1.39</v>
-      </c>
-      <c r="N43">
-        <v>2.8</v>
-      </c>
-      <c r="O43">
-        <v>1.02</v>
-      </c>
-      <c r="P43">
-        <v>9</v>
-      </c>
-      <c r="Q43">
-        <v>1.3</v>
-      </c>
-      <c r="R43">
-        <v>3.3</v>
-      </c>
-      <c r="S43">
-        <v>1.86</v>
-      </c>
-      <c r="T43">
-        <v>1.84</v>
-      </c>
-      <c r="U43">
-        <v>1.78</v>
-      </c>
-      <c r="V43">
-        <v>1.95</v>
-      </c>
-      <c r="W43">
-        <v>1.25</v>
-      </c>
-      <c r="X43">
-        <v>1.25</v>
-      </c>
-      <c r="Y43">
-        <v>1.8</v>
-      </c>
-      <c r="Z43">
-        <v>2.36</v>
-      </c>
-      <c r="AA43">
-        <v>2.18</v>
-      </c>
-      <c r="AB43">
-        <v>1.69</v>
-      </c>
-      <c r="AC43">
-        <v>1.18</v>
-      </c>
-      <c r="AD43">
-        <v>2.87</v>
-      </c>
       <c r="AE43">
-        <v>1.69</v>
+        <v>2.04</v>
       </c>
       <c r="AF43">
         <v>8</v>
       </c>
       <c r="AG43">
-        <v>2.62</v>
+        <v>2.04</v>
       </c>
       <c r="AH43">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="AI43">
-        <v>3.25</v>
+        <v>2.51</v>
       </c>
       <c r="AJ43">
-        <v>1.49</v>
+        <v>1.88</v>
       </c>
       <c r="AK43">
-        <v>2.33</v>
+        <v>1.92</v>
       </c>
       <c r="AL43">
-        <v>1.92</v>
+        <v>2.37</v>
       </c>
       <c r="AM43">
-        <v>1.88</v>
+        <v>1.55</v>
       </c>
       <c r="AN43">
-        <v>2.38</v>
+        <v>3.28</v>
       </c>
       <c r="AO43">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="AP43">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AQ43">
-        <v>1.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:43">
@@ -6598,76 +6598,76 @@
         <v>178</v>
       </c>
       <c r="G44">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="I44">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="J44">
-        <v>4.33</v>
+        <v>2.37</v>
       </c>
       <c r="K44">
+        <v>3.4</v>
+      </c>
+      <c r="L44">
+        <v>2.5</v>
+      </c>
+      <c r="M44">
+        <v>1.33</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44">
+        <v>1.04</v>
+      </c>
+      <c r="P44">
+        <v>10</v>
+      </c>
+      <c r="Q44">
+        <v>1.22</v>
+      </c>
+      <c r="R44">
         <v>4</v>
       </c>
-      <c r="L44">
-        <v>1.57</v>
-      </c>
-      <c r="M44">
-        <v>1.28</v>
-      </c>
-      <c r="N44">
-        <v>3.4</v>
-      </c>
-      <c r="O44">
-        <v>1.02</v>
-      </c>
-      <c r="P44">
-        <v>12</v>
-      </c>
-      <c r="Q44">
-        <v>1.17</v>
-      </c>
-      <c r="R44">
-        <v>4.5</v>
-      </c>
       <c r="S44">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="T44">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="U44">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V44">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W44">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="X44">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="Y44">
-        <v>1.17</v>
+        <v>1.45</v>
       </c>
       <c r="Z44">
-        <v>2.23</v>
+        <v>1.33</v>
       </c>
       <c r="AA44">
-        <v>2.85</v>
+        <v>1.42</v>
       </c>
       <c r="AB44">
-        <v>1.7</v>
+        <v>1.41</v>
       </c>
       <c r="AC44">
-        <v>2.32</v>
+        <v>1.52</v>
       </c>
       <c r="AD44">
-        <v>4.02</v>
+        <v>2.93</v>
       </c>
       <c r="AE44">
         <v>0</v>
@@ -6738,13 +6738,13 @@
         <v>4</v>
       </c>
       <c r="J45">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="K45">
-        <v>3.53</v>
+        <v>3.6</v>
       </c>
       <c r="L45">
-        <v>3.63</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
         <v>1.3</v>
@@ -6768,7 +6768,7 @@
         <v>1.61</v>
       </c>
       <c r="T45">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U45">
         <v>1.6</v>
@@ -6801,43 +6801,43 @@
         <v>2.9</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AG45">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI45">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ45">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK45">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AL45">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AM45">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AN45">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AO45">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AP45">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AQ45">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="46" spans="1:43">
@@ -6860,115 +6860,115 @@
         <v>180</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H46">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="J46">
-        <v>2.41</v>
+        <v>4.33</v>
       </c>
       <c r="K46">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="L46">
-        <v>2.41</v>
+        <v>1.57</v>
       </c>
       <c r="M46">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="N46">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O46">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P46">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q46">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="R46">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="S46">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="T46">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="U46">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V46">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W46">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="X46">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="Y46">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="Z46">
-        <v>1.33</v>
+        <v>2.23</v>
       </c>
       <c r="AA46">
-        <v>1.42</v>
+        <v>2.85</v>
       </c>
       <c r="AB46">
+        <v>1.7</v>
+      </c>
+      <c r="AC46">
+        <v>2.32</v>
+      </c>
+      <c r="AD46">
+        <v>4.02</v>
+      </c>
+      <c r="AE46">
+        <v>3.7</v>
+      </c>
+      <c r="AF46">
+        <v>9.9</v>
+      </c>
+      <c r="AG46">
+        <v>1.34</v>
+      </c>
+      <c r="AH46">
+        <v>1.23</v>
+      </c>
+      <c r="AI46">
+        <v>3.7</v>
+      </c>
+      <c r="AJ46">
+        <v>1.43</v>
+      </c>
+      <c r="AK46">
+        <v>2.65</v>
+      </c>
+      <c r="AL46">
+        <v>1.72</v>
+      </c>
+      <c r="AM46">
+        <v>2.03</v>
+      </c>
+      <c r="AN46">
+        <v>2.13</v>
+      </c>
+      <c r="AO46">
+        <v>1.65</v>
+      </c>
+      <c r="AP46">
+        <v>2.7</v>
+      </c>
+      <c r="AQ46">
         <v>1.41</v>
-      </c>
-      <c r="AC46">
-        <v>1.52</v>
-      </c>
-      <c r="AD46">
-        <v>2.93</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <v>0</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <v>0</v>
-      </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
-      <c r="AK46">
-        <v>0</v>
-      </c>
-      <c r="AL46">
-        <v>0</v>
-      </c>
-      <c r="AM46">
-        <v>0</v>
-      </c>
-      <c r="AN46">
-        <v>0</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>0</v>
-      </c>
-      <c r="AQ46">
-        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:43">
@@ -7000,13 +7000,13 @@
         <v>4.75</v>
       </c>
       <c r="J47">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="K47">
-        <v>3.32</v>
+        <v>3.2</v>
       </c>
       <c r="L47">
-        <v>3.42</v>
+        <v>3.9</v>
       </c>
       <c r="M47">
         <v>1.5</v>
@@ -7027,10 +7027,10 @@
         <v>2.9</v>
       </c>
       <c r="S47">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="T47">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="U47">
         <v>2</v>
@@ -7131,13 +7131,13 @@
         <v>4.76</v>
       </c>
       <c r="J48">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="K48">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="L48">
-        <v>4.12</v>
+        <v>3.7</v>
       </c>
       <c r="M48">
         <v>1.37</v>
@@ -7161,7 +7161,7 @@
         <v>1.75</v>
       </c>
       <c r="T48">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U48">
         <v>1.73</v>
@@ -7262,13 +7262,13 @@
         <v>2.05</v>
       </c>
       <c r="J49">
-        <v>6.15</v>
+        <v>5.75</v>
       </c>
       <c r="K49">
-        <v>4.37</v>
+        <v>4</v>
       </c>
       <c r="L49">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M49">
         <v>1.33</v>
@@ -7289,10 +7289,10 @@
         <v>4</v>
       </c>
       <c r="S49">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="T49">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U49">
         <v>1.83</v>
@@ -7393,13 +7393,13 @@
         <v>6.5</v>
       </c>
       <c r="J50">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="K50">
-        <v>5.05</v>
+        <v>5</v>
       </c>
       <c r="L50">
-        <v>8.35</v>
+        <v>9.5</v>
       </c>
       <c r="M50">
         <v>1.33</v>
@@ -7420,10 +7420,10 @@
         <v>4</v>
       </c>
       <c r="S50">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="T50">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="U50">
         <v>1.95</v>
@@ -7524,13 +7524,13 @@
         <v>5</v>
       </c>
       <c r="J51">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="K51">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L51">
-        <v>4.48</v>
+        <v>4.8</v>
       </c>
       <c r="M51">
         <v>1.4</v>
@@ -7551,10 +7551,10 @@
         <v>3.25</v>
       </c>
       <c r="S51">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="T51">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U51">
         <v>1.95</v>
@@ -7655,13 +7655,13 @@
         <v>5</v>
       </c>
       <c r="J52">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="K52">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L52">
-        <v>4.83</v>
+        <v>4.6</v>
       </c>
       <c r="M52">
         <v>1.35</v>
@@ -7682,10 +7682,10 @@
         <v>3.75</v>
       </c>
       <c r="S52">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U52">
         <v>1.8</v>
@@ -7786,13 +7786,13 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="K53">
         <v>3.1</v>
       </c>
       <c r="L53">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -7813,10 +7813,10 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <v>2.06</v>
+        <v>2.35</v>
       </c>
       <c r="T53">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="U53">
         <v>0</v>
